--- a/BetterNames-v2.1-Alchemy.xlsx
+++ b/BetterNames-v2.1-Alchemy.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7425" uniqueCount="1482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7459" uniqueCount="1491">
   <si>
     <t>ALCH</t>
   </si>
@@ -4476,6 +4476,33 @@
   </si>
   <si>
     <t>Bottle of Absinthe</t>
+  </si>
+  <si>
+    <t>Potion of Dragon's Blood</t>
+  </si>
+  <si>
+    <t>ABtv_pot_CureParalysis</t>
+  </si>
+  <si>
+    <t>Aryon's Cure for Paralyzation</t>
+  </si>
+  <si>
+    <t>Cure Paralysis by Aryon</t>
+  </si>
+  <si>
+    <t>Potion Cure Paralysis by Aryon</t>
+  </si>
+  <si>
+    <t>ABtv_pot_CureBlightMMCure</t>
+  </si>
+  <si>
+    <t>ABtv_dri_SheinVintage</t>
+  </si>
+  <si>
+    <t>Vintage Wine</t>
+  </si>
+  <si>
+    <t>Bottle of Vintage Wine</t>
   </si>
 </sst>
 </file>
@@ -13722,10 +13749,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N367"/>
+  <dimension ref="A1:N369"/>
   <sheetViews>
-    <sheetView topLeftCell="A333" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I367"/>
+    <sheetView topLeftCell="A343" workbookViewId="0">
+      <selection activeCell="A367" sqref="A367:A369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24724,14 +24751,14 @@
         <v>941</v>
       </c>
       <c r="H322">
-        <f t="shared" ref="H322:H367" si="10">LEN(G322)</f>
+        <f t="shared" ref="H322:H369" si="10">LEN(G322)</f>
         <v>20</v>
       </c>
       <c r="I322" t="s">
         <v>1057</v>
       </c>
       <c r="J322">
-        <f t="shared" ref="J322:J367" si="11">LEN(I322)</f>
+        <f t="shared" ref="J322:J369" si="11">LEN(I322)</f>
         <v>27</v>
       </c>
     </row>
@@ -26263,6 +26290,74 @@
       <c r="J367">
         <f t="shared" si="11"/>
         <v>24</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>875</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C368" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D368" s="2">
+        <v>0</v>
+      </c>
+      <c r="E368" s="2">
+        <v>0</v>
+      </c>
+      <c r="F368" s="2">
+        <v>0</v>
+      </c>
+      <c r="G368" s="2" t="s">
+        <v>1485</v>
+      </c>
+      <c r="H368">
+        <f t="shared" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="I368" s="2" t="s">
+        <v>1486</v>
+      </c>
+      <c r="J368">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>875</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C369" t="s">
+        <v>437</v>
+      </c>
+      <c r="D369" s="2">
+        <v>0</v>
+      </c>
+      <c r="E369" s="2">
+        <v>0</v>
+      </c>
+      <c r="F369" s="2">
+        <v>0</v>
+      </c>
+      <c r="G369" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="H369">
+        <f t="shared" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="I369" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="J369">
+        <f t="shared" si="11"/>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -26283,9 +26378,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D471"/>
+  <dimension ref="A1:D474"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A434" workbookViewId="0">
+      <selection activeCell="D472" sqref="D472:D474"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -32919,7 +33016,7 @@
         <v>1474</v>
       </c>
       <c r="D442" t="str">
-        <f t="shared" ref="D442:D471" si="7">IF(B442&lt;&gt;C442,"{ID="&amp;""""&amp;A442&amp;""""&amp;", name="&amp;""""&amp;C442&amp;""""&amp;"},","")</f>
+        <f t="shared" ref="D442:D474" si="7">IF(B442&lt;&gt;C442,"{ID="&amp;""""&amp;A442&amp;""""&amp;", name="&amp;""""&amp;C442&amp;""""&amp;"},","")</f>
         <v>{ID="Ascadian Ale4", name="Mug of Dead Guard"},</v>
       </c>
     </row>
@@ -33356,6 +33453,51 @@
       <c r="D471" t="str">
         <f t="shared" si="7"/>
         <v>{ID="MI_absinthe", name="Bottle of Absinthe"},</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B472" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C472" s="2" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D472" t="str">
+        <f t="shared" si="7"/>
+        <v>{ID="ABtv_pot_CureParalysis", name="Cure Paralysis by Aryon"},</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B473" t="s">
+        <v>437</v>
+      </c>
+      <c r="C473" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D473" t="str">
+        <f t="shared" si="7"/>
+        <v>{ID="ABtv_pot_CureBlightMMCure", name="Cure Blight Disease"},</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B474" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C474" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D474" t="str">
+        <f t="shared" si="7"/>
+        <v>{ID="ABtv_dri_SheinVintage", name="Bottle of Vintage Wine"},</v>
       </c>
     </row>
   </sheetData>
@@ -33373,9 +33515,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D471"/>
+  <dimension ref="A1:D474"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A440" workbookViewId="0">
+      <selection activeCell="A475" sqref="A475"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -40144,7 +40288,7 @@
         <v>822</v>
       </c>
       <c r="D451" t="str">
-        <f t="shared" ref="D451:D471" si="7">IF(B451&lt;&gt;C451,"{ID="&amp;""""&amp;A451&amp;""""&amp;", name="&amp;""""&amp;C451&amp;""""&amp;"},","")</f>
+        <f t="shared" ref="D451:D474" si="7">IF(B451&lt;&gt;C451,"{ID="&amp;""""&amp;A451&amp;""""&amp;", name="&amp;""""&amp;C451&amp;""""&amp;"},","")</f>
         <v/>
       </c>
     </row>
@@ -40446,6 +40590,51 @@
       <c r="D471" t="str">
         <f t="shared" si="7"/>
         <v>{ID="MI_absinthe", name="Bottle of Absinthe"},</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B472" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C472" s="2" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D472" t="str">
+        <f t="shared" si="7"/>
+        <v>{ID="ABtv_pot_CureParalysis", name="Potion Cure Paralysis by Aryon"},</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B473" t="s">
+        <v>437</v>
+      </c>
+      <c r="C473" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D473" t="str">
+        <f t="shared" si="7"/>
+        <v>{ID="ABtv_pot_CureBlightMMCure", name="Potion Cure Blight Disease"},</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B474" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C474" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D474" t="str">
+        <f t="shared" si="7"/>
+        <v>{ID="ABtv_dri_SheinVintage", name="Bottle of Vintage Wine"},</v>
       </c>
     </row>
   </sheetData>
@@ -40463,10 +40652,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J481"/>
+  <dimension ref="A1:J482"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I465" sqref="I465"/>
+    <sheetView topLeftCell="A437" workbookViewId="0">
+      <selection activeCell="I482" sqref="I482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50444,7 +50633,7 @@
         <v>#N/A</v>
       </c>
       <c r="H400" t="str">
-        <f t="shared" ref="H400:H409" si="11">"Bottle of "&amp;C400</f>
+        <f t="shared" ref="H400:H408" si="11">"Bottle of "&amp;C400</f>
         <v>Bottle of Vitriol Oil</v>
       </c>
       <c r="I400">
@@ -50452,7 +50641,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>0</v>
       </c>
@@ -50484,7 +50673,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>0</v>
       </c>
@@ -50516,7 +50705,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>0</v>
       </c>
@@ -50548,7 +50737,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>0</v>
       </c>
@@ -50580,7 +50769,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>0</v>
       </c>
@@ -50611,7 +50800,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>0</v>
       </c>
@@ -50642,7 +50831,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>0</v>
       </c>
@@ -50674,7 +50863,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>0</v>
       </c>
@@ -50706,7 +50895,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>0</v>
       </c>
@@ -50729,16 +50918,18 @@
         <f>VLOOKUP(B409,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H409" t="str">
-        <f t="shared" si="11"/>
-        <v>Bottle of Dragon's Blood</v>
+      <c r="H409" t="s">
+        <v>1482</v>
       </c>
       <c r="I409">
         <f t="shared" si="12"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J409" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>0</v>
       </c>
@@ -50769,7 +50960,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>0</v>
       </c>
@@ -50797,7 +50988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>0</v>
       </c>
@@ -50825,7 +51016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>0</v>
       </c>
@@ -50853,7 +51044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>0</v>
       </c>
@@ -50881,7 +51072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>0</v>
       </c>
@@ -50909,7 +51100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>0</v>
       </c>
@@ -52302,7 +52493,7 @@
         <v>1387</v>
       </c>
       <c r="I464">
-        <f t="shared" ref="I464:I481" si="20">LEN(H464)</f>
+        <f t="shared" ref="I464:I482" si="20">LEN(H464)</f>
         <v>23</v>
       </c>
     </row>
@@ -52824,6 +53015,37 @@
       <c r="I481">
         <f t="shared" si="20"/>
         <v>18</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>0</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C482" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D482">
+        <v>0</v>
+      </c>
+      <c r="E482">
+        <v>0</v>
+      </c>
+      <c r="F482">
+        <v>0</v>
+      </c>
+      <c r="G482" t="e">
+        <f>VLOOKUP(B482,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H482" t="s">
+        <v>1490</v>
+      </c>
+      <c r="I482">
+        <f t="shared" si="20"/>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/BetterNames-v2.1-Alchemy.xlsx
+++ b/BetterNames-v2.1-Alchemy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23595" windowHeight="10440" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23595" windowHeight="10440" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Alchemy-BASE-PotionsOnly" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Json-Effects" sheetId="7" r:id="rId3"/>
     <sheet name="Json-PotionPotion" sheetId="8" r:id="rId4"/>
     <sheet name="Alchemy-AllMods" sheetId="5" r:id="rId5"/>
+    <sheet name="Alchemy-OAAB-18" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Alchemy-AllMods'!$A$1:$J$481</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7459" uniqueCount="1491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8285" uniqueCount="1496">
   <si>
     <t>ALCH</t>
   </si>
@@ -4503,6 +4504,21 @@
   </si>
   <si>
     <t>Bottle of Vintage Wine</t>
+  </si>
+  <si>
+    <t>AB_dri_Sillapi</t>
+  </si>
+  <si>
+    <t>Sillapi</t>
+  </si>
+  <si>
+    <t>Base?</t>
+  </si>
+  <si>
+    <t>Mods?</t>
+  </si>
+  <si>
+    <t>Bottle of Sillapi</t>
   </si>
 </sst>
 </file>
@@ -13751,7 +13767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N369"/>
   <sheetViews>
-    <sheetView topLeftCell="A343" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A367" sqref="A367:A369"/>
     </sheetView>
   </sheetViews>
@@ -26378,10 +26394,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D474"/>
+  <dimension ref="A1:D475"/>
   <sheetViews>
-    <sheetView topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="D472" sqref="D472:D474"/>
+    <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
+      <selection activeCell="C478" sqref="C478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33016,7 +33032,7 @@
         <v>1474</v>
       </c>
       <c r="D442" t="str">
-        <f t="shared" ref="D442:D474" si="7">IF(B442&lt;&gt;C442,"{ID="&amp;""""&amp;A442&amp;""""&amp;", name="&amp;""""&amp;C442&amp;""""&amp;"},","")</f>
+        <f t="shared" ref="D442:D475" si="7">IF(B442&lt;&gt;C442,"{ID="&amp;""""&amp;A442&amp;""""&amp;", name="&amp;""""&amp;C442&amp;""""&amp;"},","")</f>
         <v>{ID="Ascadian Ale4", name="Mug of Dead Guard"},</v>
       </c>
     </row>
@@ -33498,6 +33514,21 @@
       <c r="D474" t="str">
         <f t="shared" si="7"/>
         <v>{ID="ABtv_dri_SheinVintage", name="Bottle of Vintage Wine"},</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A475" s="2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C475" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D475" t="str">
+        <f t="shared" si="7"/>
+        <v>{ID="AB_dri_Sillapi", name="Bottle of Sillapi"},</v>
       </c>
     </row>
   </sheetData>
@@ -33517,7 +33548,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D474"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A440" workbookViewId="0">
+    <sheetView topLeftCell="A440" workbookViewId="0">
       <selection activeCell="A475" sqref="A475"/>
     </sheetView>
   </sheetViews>
@@ -40652,10 +40683,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J482"/>
+  <dimension ref="A1:J483"/>
   <sheetViews>
-    <sheetView topLeftCell="A437" workbookViewId="0">
-      <selection activeCell="I482" sqref="I482"/>
+    <sheetView topLeftCell="A472" workbookViewId="0">
+      <selection activeCell="H483" sqref="H483"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52493,7 +52524,7 @@
         <v>1387</v>
       </c>
       <c r="I464">
-        <f t="shared" ref="I464:I482" si="20">LEN(H464)</f>
+        <f t="shared" ref="I464:I483" si="20">LEN(H464)</f>
         <v>23</v>
       </c>
     </row>
@@ -53046,6 +53077,37 @@
       <c r="I482">
         <f t="shared" si="20"/>
         <v>22</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A483" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C483" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D483" s="2">
+        <v>3</v>
+      </c>
+      <c r="E483" s="2">
+        <v>15</v>
+      </c>
+      <c r="F483" s="2">
+        <v>0</v>
+      </c>
+      <c r="G483" t="e">
+        <f>VLOOKUP(B483,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H483" t="s">
+        <v>1495</v>
+      </c>
+      <c r="I483">
+        <f t="shared" si="20"/>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -53058,4 +53120,7655 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H273"/>
+  <sheetViews>
+    <sheetView topLeftCell="A239" workbookViewId="0">
+      <selection activeCell="A270" sqref="A270:F270"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>867</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>500</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="e">
+        <f>VLOOKUP(B2,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H2" t="str">
+        <f>VLOOKUP(B2,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>potion_skooma_01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="e">
+        <f>VLOOKUP(B3,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H3" t="str">
+        <f>VLOOKUP(B3,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>Potion_Cyro_Whiskey_01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>497</v>
+      </c>
+      <c r="C4" t="s">
+        <v>498</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="e">
+        <f>VLOOKUP(B4,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H4" t="str">
+        <f>VLOOKUP(B4,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>potion_comberry_wine_01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C5" t="s">
+        <v>500</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="e">
+        <f>VLOOKUP(B5,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H5" t="str">
+        <f>VLOOKUP(B5,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>potion_cyro_brandy_01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>501</v>
+      </c>
+      <c r="C6" t="s">
+        <v>502</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="e">
+        <f>VLOOKUP(B6,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H6" t="str">
+        <f>VLOOKUP(B6,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>potion_comberry_brandy_01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>503</v>
+      </c>
+      <c r="C7" t="s">
+        <v>504</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="e">
+        <f>VLOOKUP(B7,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H7" t="str">
+        <f>VLOOKUP(B7,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>Potion_Local_Brew_01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>505</v>
+      </c>
+      <c r="C8" t="s">
+        <v>506</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="e">
+        <f>VLOOKUP(B8,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H8" t="str">
+        <f>VLOOKUP(B8,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>potion_local_liquor_01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>507</v>
+      </c>
+      <c r="C9" t="s">
+        <v>508</v>
+      </c>
+      <c r="D9">
+        <v>1.5</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="e">
+        <f>VLOOKUP(B9,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H9" t="str">
+        <f>VLOOKUP(B9,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>potion_t_bug_musk_01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>0.75</v>
+      </c>
+      <c r="E10">
+        <v>35</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="str">
+        <f>VLOOKUP(B10,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_burden_s</v>
+      </c>
+      <c r="H10" t="str">
+        <f>VLOOKUP(B10,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_burden_s</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>0.75</v>
+      </c>
+      <c r="E11">
+        <v>35</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="str">
+        <f>VLOOKUP(B11,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fire_shield_s</v>
+      </c>
+      <c r="H11" t="str">
+        <f>VLOOKUP(B11,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fire_shield_s</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>0.75</v>
+      </c>
+      <c r="E12">
+        <v>35</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="str">
+        <f>VLOOKUP(B12,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_endurance_s</v>
+      </c>
+      <c r="H12" t="str">
+        <f>VLOOKUP(B12,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_endurance_s</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>0.75</v>
+      </c>
+      <c r="E13">
+        <v>35</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="str">
+        <f>VLOOKUP(B13,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_personality_s</v>
+      </c>
+      <c r="H13" t="str">
+        <f>VLOOKUP(B13,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_personality_s</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>0.75</v>
+      </c>
+      <c r="E14">
+        <v>35</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="str">
+        <f>VLOOKUP(B14,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_speed_s</v>
+      </c>
+      <c r="H14" t="str">
+        <f>VLOOKUP(B14,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_speed_s</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>0.75</v>
+      </c>
+      <c r="E15">
+        <v>35</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="str">
+        <f>VLOOKUP(B15,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_strength_s</v>
+      </c>
+      <c r="H15" t="str">
+        <f>VLOOKUP(B15,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_strength_s</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>0.75</v>
+      </c>
+      <c r="E16">
+        <v>35</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="str">
+        <f>VLOOKUP(B16,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_health_s</v>
+      </c>
+      <c r="H16" t="str">
+        <f>VLOOKUP(B16,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_health_s</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>0.75</v>
+      </c>
+      <c r="E17">
+        <v>35</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="str">
+        <f>VLOOKUP(B17,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_invisibility_s</v>
+      </c>
+      <c r="H17" t="str">
+        <f>VLOOKUP(B17,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_invisibility_s</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>0.75</v>
+      </c>
+      <c r="E18">
+        <v>35</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="str">
+        <f>VLOOKUP(B18,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_light_s</v>
+      </c>
+      <c r="H18" t="str">
+        <f>VLOOKUP(B18,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_light_s</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>0.75</v>
+      </c>
+      <c r="E19">
+        <v>35</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="str">
+        <f>VLOOKUP(B19,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_lightning shield_s</v>
+      </c>
+      <c r="H19" t="str">
+        <f>VLOOKUP(B19,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_lightning shield_s</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20">
+        <v>0.75</v>
+      </c>
+      <c r="E20">
+        <v>35</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="str">
+        <f>VLOOKUP(B20,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_night-eye_s</v>
+      </c>
+      <c r="H20" t="str">
+        <f>VLOOKUP(B20,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_night-eye_s</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21">
+        <v>0.75</v>
+      </c>
+      <c r="E21">
+        <v>35</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="str">
+        <f>VLOOKUP(B21,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_paralyze_s</v>
+      </c>
+      <c r="H21" t="str">
+        <f>VLOOKUP(B21,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_paralyze_s</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22">
+        <v>0.75</v>
+      </c>
+      <c r="E22">
+        <v>35</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="str">
+        <f>VLOOKUP(B22,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_reflection_s</v>
+      </c>
+      <c r="H22" t="str">
+        <f>VLOOKUP(B22,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_reflection_s</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23">
+        <v>0.75</v>
+      </c>
+      <c r="E23">
+        <v>35</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="str">
+        <f>VLOOKUP(B23,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fire resistance_s</v>
+      </c>
+      <c r="H23" t="str">
+        <f>VLOOKUP(B23,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fire resistance_s</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24">
+        <v>0.75</v>
+      </c>
+      <c r="E24">
+        <v>35</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="str">
+        <f>VLOOKUP(B24,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_magicka_resistance_s</v>
+      </c>
+      <c r="H24" t="str">
+        <f>VLOOKUP(B24,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_magicka_resistance_s</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25">
+        <v>0.75</v>
+      </c>
+      <c r="E25">
+        <v>35</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="str">
+        <f>VLOOKUP(B25,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_poison_resistance_s</v>
+      </c>
+      <c r="H25" t="str">
+        <f>VLOOKUP(B25,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_poison_resistance_s</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26">
+        <v>0.75</v>
+      </c>
+      <c r="E26">
+        <v>35</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" t="str">
+        <f>VLOOKUP(B26,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_shock_resistance_s</v>
+      </c>
+      <c r="H26" t="str">
+        <f>VLOOKUP(B26,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_shock_resistance_s</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27">
+        <v>0.75</v>
+      </c>
+      <c r="E27">
+        <v>35</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="str">
+        <f>VLOOKUP(B27,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_agility_s</v>
+      </c>
+      <c r="H27" t="str">
+        <f>VLOOKUP(B27,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_agility_s</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28">
+        <v>0.75</v>
+      </c>
+      <c r="E28">
+        <v>35</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="str">
+        <f>VLOOKUP(B28,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_endurance_s</v>
+      </c>
+      <c r="H28" t="str">
+        <f>VLOOKUP(B28,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_endurance_s</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29">
+        <v>0.75</v>
+      </c>
+      <c r="E29">
+        <v>35</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="str">
+        <f>VLOOKUP(B29,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_intelligence_s</v>
+      </c>
+      <c r="H29" t="str">
+        <f>VLOOKUP(B29,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_intelligence_s</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30">
+        <v>0.75</v>
+      </c>
+      <c r="E30">
+        <v>35</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="str">
+        <f>VLOOKUP(B30,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_luck_s</v>
+      </c>
+      <c r="H30" t="str">
+        <f>VLOOKUP(B30,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_luck_s</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31">
+        <v>0.75</v>
+      </c>
+      <c r="E31">
+        <v>35</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="str">
+        <f>VLOOKUP(B31,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_personality_s</v>
+      </c>
+      <c r="H31" t="str">
+        <f>VLOOKUP(B31,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_personality_s</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32">
+        <v>0.75</v>
+      </c>
+      <c r="E32">
+        <v>35</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="str">
+        <f>VLOOKUP(B32,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_speed_s</v>
+      </c>
+      <c r="H32" t="str">
+        <f>VLOOKUP(B32,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_speed_s</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33">
+        <v>0.75</v>
+      </c>
+      <c r="E33">
+        <v>35</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="str">
+        <f>VLOOKUP(B33,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_strength_s</v>
+      </c>
+      <c r="H33" t="str">
+        <f>VLOOKUP(B33,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_strength_s</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34">
+        <v>0.75</v>
+      </c>
+      <c r="E34">
+        <v>35</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="str">
+        <f>VLOOKUP(B34,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_willpower_s</v>
+      </c>
+      <c r="H34" t="str">
+        <f>VLOOKUP(B34,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_willpower_s</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35">
+        <v>0.75</v>
+      </c>
+      <c r="E35">
+        <v>35</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="str">
+        <f>VLOOKUP(B35,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_fatigue_s</v>
+      </c>
+      <c r="H35" t="str">
+        <f>VLOOKUP(B35,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_fatigue_s</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36">
+        <v>0.75</v>
+      </c>
+      <c r="E36">
+        <v>35</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="str">
+        <f>VLOOKUP(B36,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_silence_s</v>
+      </c>
+      <c r="H36" t="str">
+        <f>VLOOKUP(B36,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_silence_s</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37">
+        <v>0.75</v>
+      </c>
+      <c r="E37">
+        <v>35</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="str">
+        <f>VLOOKUP(B37,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_spell_absorption_s</v>
+      </c>
+      <c r="H37" t="str">
+        <f>VLOOKUP(B37,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_spell_absorption_s</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38">
+        <v>0.75</v>
+      </c>
+      <c r="E38">
+        <v>35</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" t="str">
+        <f>VLOOKUP(B38,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_levitation_s</v>
+      </c>
+      <c r="H38" t="str">
+        <f>VLOOKUP(B38,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_levitation_s</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39">
+        <v>0.75</v>
+      </c>
+      <c r="E39">
+        <v>35</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" t="str">
+        <f>VLOOKUP(B39,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_fatigue_s</v>
+      </c>
+      <c r="H39" t="str">
+        <f>VLOOKUP(B39,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_fatigue_s</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>15</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="str">
+        <f>VLOOKUP(B40,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_burden_c</v>
+      </c>
+      <c r="H40" t="str">
+        <f>VLOOKUP(B40,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_burden_c</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41">
+        <v>1.5</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" t="str">
+        <f>VLOOKUP(B41,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_burden_b</v>
+      </c>
+      <c r="H41" t="str">
+        <f>VLOOKUP(B41,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_burden_b</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42">
+        <v>0.5</v>
+      </c>
+      <c r="E42">
+        <v>80</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" t="str">
+        <f>VLOOKUP(B42,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_burden_q</v>
+      </c>
+      <c r="H42" t="str">
+        <f>VLOOKUP(B42,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_burden_q</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43">
+        <v>0.25</v>
+      </c>
+      <c r="E43">
+        <v>175</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43" t="str">
+        <f>VLOOKUP(B43,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_burden_e</v>
+      </c>
+      <c r="H43" t="str">
+        <f>VLOOKUP(B43,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_burden_e</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" t="s">
+        <v>595</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>10</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44" t="str">
+        <f>VLOOKUP(B44,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_drain_agility_q</v>
+      </c>
+      <c r="H44" t="str">
+        <f>VLOOKUP(B44,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_drain_agility_q</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" t="s">
+        <v>595</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>10</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45" t="str">
+        <f>VLOOKUP(B45,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_drain_endurance_q</v>
+      </c>
+      <c r="H45" t="str">
+        <f>VLOOKUP(B45,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_drain_endurance_q</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>10</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46" t="str">
+        <f>VLOOKUP(B46,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_drain_intelligence_q</v>
+      </c>
+      <c r="H46" t="str">
+        <f>VLOOKUP(B46,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_drain_intelligence_q</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>10</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47" t="str">
+        <f>VLOOKUP(B47,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_drain_luck_q</v>
+      </c>
+      <c r="H47" t="str">
+        <f>VLOOKUP(B47,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_drain_luck_q</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>10</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48" t="str">
+        <f>VLOOKUP(B48,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_drain_magicka_q</v>
+      </c>
+      <c r="H48" t="str">
+        <f>VLOOKUP(B48,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_drain_magicka_q</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>10</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49" t="str">
+        <f>VLOOKUP(B49,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_drain_personality_q</v>
+      </c>
+      <c r="H49" t="str">
+        <f>VLOOKUP(B49,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_drain_personality_q</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>10</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50" t="str">
+        <f>VLOOKUP(B50,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_drain_speed_q</v>
+      </c>
+      <c r="H50" t="str">
+        <f>VLOOKUP(B50,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_drain_speed_q</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>10</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51" t="str">
+        <f>VLOOKUP(B51,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_drain_strength_q</v>
+      </c>
+      <c r="H51" t="str">
+        <f>VLOOKUP(B51,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_drain_strength_q</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>10</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52" t="str">
+        <f>VLOOKUP(B52,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_drain willpower_q</v>
+      </c>
+      <c r="H52" t="str">
+        <f>VLOOKUP(B52,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_drain willpower_q</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>15</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53" t="str">
+        <f>VLOOKUP(B53,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_feather_c</v>
+      </c>
+      <c r="H53" t="str">
+        <f>VLOOKUP(B53,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_feather_c</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54">
+        <v>1.5</v>
+      </c>
+      <c r="E54">
+        <v>5</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54" t="str">
+        <f>VLOOKUP(B54,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_feather_b</v>
+      </c>
+      <c r="H54" t="str">
+        <f>VLOOKUP(B54,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_feather_b</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" t="s">
+        <v>87</v>
+      </c>
+      <c r="D55">
+        <v>0.25</v>
+      </c>
+      <c r="E55">
+        <v>175</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55" t="str">
+        <f>VLOOKUP(B55,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_feather_e</v>
+      </c>
+      <c r="H55" t="str">
+        <f>VLOOKUP(B55,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_feather_e</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56">
+        <v>0.5</v>
+      </c>
+      <c r="E56">
+        <v>80</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" t="str">
+        <f>VLOOKUP(B56,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_feather_q</v>
+      </c>
+      <c r="H56" t="str">
+        <f>VLOOKUP(B56,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_feather_q</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" t="s">
+        <v>91</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>15</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" t="str">
+        <f>VLOOKUP(B57,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fire_shield_c</v>
+      </c>
+      <c r="H57" t="str">
+        <f>VLOOKUP(B57,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fire_shield_c</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" t="s">
+        <v>93</v>
+      </c>
+      <c r="D58">
+        <v>1.5</v>
+      </c>
+      <c r="E58">
+        <v>5</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58" t="str">
+        <f>VLOOKUP(B58,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fire_shield_b</v>
+      </c>
+      <c r="H58" t="str">
+        <f>VLOOKUP(B58,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fire_shield_b</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" t="s">
+        <v>95</v>
+      </c>
+      <c r="D59">
+        <v>0.25</v>
+      </c>
+      <c r="E59">
+        <v>175</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59" t="str">
+        <f>VLOOKUP(B59,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fire_shield_e</v>
+      </c>
+      <c r="H59" t="str">
+        <f>VLOOKUP(B59,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fire_shield_e</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" t="s">
+        <v>97</v>
+      </c>
+      <c r="D60">
+        <v>0.5</v>
+      </c>
+      <c r="E60">
+        <v>80</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60" t="str">
+        <f>VLOOKUP(B60,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fire_shield_q</v>
+      </c>
+      <c r="H60" t="str">
+        <f>VLOOKUP(B60,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fire_shield_q</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61" t="s">
+        <v>99</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>15</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61" t="str">
+        <f>VLOOKUP(B61,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_agility_c</v>
+      </c>
+      <c r="H61" t="str">
+        <f>VLOOKUP(B61,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_agility_c</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>100</v>
+      </c>
+      <c r="C62" t="s">
+        <v>101</v>
+      </c>
+      <c r="D62">
+        <v>1.5</v>
+      </c>
+      <c r="E62">
+        <v>5</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62" t="str">
+        <f>VLOOKUP(B62,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_agility_b</v>
+      </c>
+      <c r="H62" t="str">
+        <f>VLOOKUP(B62,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_agility_b</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>102</v>
+      </c>
+      <c r="C63" t="s">
+        <v>103</v>
+      </c>
+      <c r="D63">
+        <v>0.5</v>
+      </c>
+      <c r="E63">
+        <v>80</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63" t="str">
+        <f>VLOOKUP(B63,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_agility_q</v>
+      </c>
+      <c r="H63" t="str">
+        <f>VLOOKUP(B63,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_agility_q</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>104</v>
+      </c>
+      <c r="C64" t="s">
+        <v>105</v>
+      </c>
+      <c r="D64">
+        <v>0.25</v>
+      </c>
+      <c r="E64">
+        <v>175</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64" t="str">
+        <f>VLOOKUP(B64,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_agility_e</v>
+      </c>
+      <c r="H64" t="str">
+        <f>VLOOKUP(B64,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_agility_e</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" t="s">
+        <v>107</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>15</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" t="str">
+        <f>VLOOKUP(B65,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_endurance_c</v>
+      </c>
+      <c r="H65" t="str">
+        <f>VLOOKUP(B65,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_endurance_c</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>108</v>
+      </c>
+      <c r="C66" t="s">
+        <v>109</v>
+      </c>
+      <c r="D66">
+        <v>1.5</v>
+      </c>
+      <c r="E66">
+        <v>5</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66" t="str">
+        <f>VLOOKUP(B66,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_endurance_b</v>
+      </c>
+      <c r="H66" t="str">
+        <f>VLOOKUP(B66,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_endurance_b</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67" t="s">
+        <v>111</v>
+      </c>
+      <c r="D67">
+        <v>0.5</v>
+      </c>
+      <c r="E67">
+        <v>80</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67" t="str">
+        <f>VLOOKUP(B67,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_endurance_q</v>
+      </c>
+      <c r="H67" t="str">
+        <f>VLOOKUP(B67,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_endurance_q</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>112</v>
+      </c>
+      <c r="C68" t="s">
+        <v>113</v>
+      </c>
+      <c r="D68">
+        <v>0.25</v>
+      </c>
+      <c r="E68">
+        <v>175</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68" t="str">
+        <f>VLOOKUP(B68,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_endurance_e</v>
+      </c>
+      <c r="H68" t="str">
+        <f>VLOOKUP(B68,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_endurance_e</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>114</v>
+      </c>
+      <c r="C69" t="s">
+        <v>115</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>15</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69" t="str">
+        <f>VLOOKUP(B69,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_fatigue_c</v>
+      </c>
+      <c r="H69" t="str">
+        <f>VLOOKUP(B69,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_fatigue_c</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>116</v>
+      </c>
+      <c r="C70" t="s">
+        <v>117</v>
+      </c>
+      <c r="D70">
+        <v>1.5</v>
+      </c>
+      <c r="E70">
+        <v>5</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70" t="str">
+        <f>VLOOKUP(B70,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_fatigue_b</v>
+      </c>
+      <c r="H70" t="str">
+        <f>VLOOKUP(B70,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_fatigue_b</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>118</v>
+      </c>
+      <c r="C71" t="s">
+        <v>119</v>
+      </c>
+      <c r="D71">
+        <v>0.25</v>
+      </c>
+      <c r="E71">
+        <v>175</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71" t="str">
+        <f>VLOOKUP(B71,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_fatigue_e</v>
+      </c>
+      <c r="H71" t="str">
+        <f>VLOOKUP(B71,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_fatigue_e</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>120</v>
+      </c>
+      <c r="C72" t="s">
+        <v>121</v>
+      </c>
+      <c r="D72">
+        <v>0.5</v>
+      </c>
+      <c r="E72">
+        <v>80</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72" t="str">
+        <f>VLOOKUP(B72,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_fatigue_q</v>
+      </c>
+      <c r="H72" t="str">
+        <f>VLOOKUP(B72,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_fatigue_q</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>122</v>
+      </c>
+      <c r="C73" t="s">
+        <v>123</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>15</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73" t="str">
+        <f>VLOOKUP(B73,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_health_c</v>
+      </c>
+      <c r="H73" t="str">
+        <f>VLOOKUP(B73,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_health_c</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>124</v>
+      </c>
+      <c r="C74" t="s">
+        <v>125</v>
+      </c>
+      <c r="D74">
+        <v>0.25</v>
+      </c>
+      <c r="E74">
+        <v>175</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74" t="str">
+        <f>VLOOKUP(B74,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_health_e</v>
+      </c>
+      <c r="H74" t="str">
+        <f>VLOOKUP(B74,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_health_e</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>126</v>
+      </c>
+      <c r="C75" t="s">
+        <v>127</v>
+      </c>
+      <c r="D75">
+        <v>0.5</v>
+      </c>
+      <c r="E75">
+        <v>80</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75" t="str">
+        <f>VLOOKUP(B75,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_health_q</v>
+      </c>
+      <c r="H75" t="str">
+        <f>VLOOKUP(B75,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_health_q</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>128</v>
+      </c>
+      <c r="C76" t="s">
+        <v>129</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>15</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76" t="str">
+        <f>VLOOKUP(B76,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_intelligence_c</v>
+      </c>
+      <c r="H76" t="str">
+        <f>VLOOKUP(B76,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_intelligence_c</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>130</v>
+      </c>
+      <c r="C77" t="s">
+        <v>131</v>
+      </c>
+      <c r="D77">
+        <v>1.5</v>
+      </c>
+      <c r="E77">
+        <v>5</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77" t="str">
+        <f>VLOOKUP(B77,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_intelligence_b</v>
+      </c>
+      <c r="H77" t="str">
+        <f>VLOOKUP(B77,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_intelligence_b</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>132</v>
+      </c>
+      <c r="C78" t="s">
+        <v>133</v>
+      </c>
+      <c r="D78">
+        <v>0.25</v>
+      </c>
+      <c r="E78">
+        <v>175</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78" t="str">
+        <f>VLOOKUP(B78,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_intelligence_e</v>
+      </c>
+      <c r="H78" t="str">
+        <f>VLOOKUP(B78,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_intelligence_e</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>134</v>
+      </c>
+      <c r="C79" t="s">
+        <v>135</v>
+      </c>
+      <c r="D79">
+        <v>0.5</v>
+      </c>
+      <c r="E79">
+        <v>80</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79" t="str">
+        <f>VLOOKUP(B79,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_intelligence_q</v>
+      </c>
+      <c r="H79" t="str">
+        <f>VLOOKUP(B79,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_intelligence_q</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>136</v>
+      </c>
+      <c r="C80" t="s">
+        <v>137</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>15</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80" t="str">
+        <f>VLOOKUP(B80,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_luck_c</v>
+      </c>
+      <c r="H80" t="str">
+        <f>VLOOKUP(B80,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_luck_c</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>138</v>
+      </c>
+      <c r="C81" t="s">
+        <v>139</v>
+      </c>
+      <c r="D81">
+        <v>1.5</v>
+      </c>
+      <c r="E81">
+        <v>5</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81" t="str">
+        <f>VLOOKUP(B81,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_luck_b</v>
+      </c>
+      <c r="H81" t="str">
+        <f>VLOOKUP(B81,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_luck_b</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>140</v>
+      </c>
+      <c r="C82" t="s">
+        <v>141</v>
+      </c>
+      <c r="D82">
+        <v>0.5</v>
+      </c>
+      <c r="E82">
+        <v>80</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82" t="str">
+        <f>VLOOKUP(B82,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_luck_q</v>
+      </c>
+      <c r="H82" t="str">
+        <f>VLOOKUP(B82,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_luck_q</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>142</v>
+      </c>
+      <c r="C83" t="s">
+        <v>143</v>
+      </c>
+      <c r="D83">
+        <v>0.25</v>
+      </c>
+      <c r="E83">
+        <v>175</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83" t="str">
+        <f>VLOOKUP(B83,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_luck_e</v>
+      </c>
+      <c r="H83" t="str">
+        <f>VLOOKUP(B83,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_luck_e</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>144</v>
+      </c>
+      <c r="C84" t="s">
+        <v>145</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>15</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84" t="str">
+        <f>VLOOKUP(B84,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_magicka_c</v>
+      </c>
+      <c r="H84" t="str">
+        <f>VLOOKUP(B84,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_magicka_c</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>146</v>
+      </c>
+      <c r="C85" t="s">
+        <v>147</v>
+      </c>
+      <c r="D85">
+        <v>0.25</v>
+      </c>
+      <c r="E85">
+        <v>175</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85" t="str">
+        <f>VLOOKUP(B85,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_magicka_e</v>
+      </c>
+      <c r="H85" t="str">
+        <f>VLOOKUP(B85,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_magicka_e</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>148</v>
+      </c>
+      <c r="C86" t="s">
+        <v>149</v>
+      </c>
+      <c r="D86">
+        <v>0.5</v>
+      </c>
+      <c r="E86">
+        <v>80</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86" t="str">
+        <f>VLOOKUP(B86,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_magicka_q</v>
+      </c>
+      <c r="H86" t="str">
+        <f>VLOOKUP(B86,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_magicka_q</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>150</v>
+      </c>
+      <c r="C87" t="s">
+        <v>151</v>
+      </c>
+      <c r="D87">
+        <v>1.5</v>
+      </c>
+      <c r="E87">
+        <v>5</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87" t="str">
+        <f>VLOOKUP(B87,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_magicka_b</v>
+      </c>
+      <c r="H87" t="str">
+        <f>VLOOKUP(B87,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_magicka_b</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>152</v>
+      </c>
+      <c r="C88" t="s">
+        <v>153</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>15</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88" t="str">
+        <f>VLOOKUP(B88,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_personality_c</v>
+      </c>
+      <c r="H88" t="str">
+        <f>VLOOKUP(B88,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_personality_c</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>154</v>
+      </c>
+      <c r="C89" t="s">
+        <v>155</v>
+      </c>
+      <c r="D89">
+        <v>0.25</v>
+      </c>
+      <c r="E89">
+        <v>175</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89" t="str">
+        <f>VLOOKUP(B89,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_personality_e</v>
+      </c>
+      <c r="H89" t="str">
+        <f>VLOOKUP(B89,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_personality_e</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>156</v>
+      </c>
+      <c r="C90" t="s">
+        <v>157</v>
+      </c>
+      <c r="D90">
+        <v>1.5</v>
+      </c>
+      <c r="E90">
+        <v>5</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90" t="str">
+        <f>VLOOKUP(B90,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_personality_b</v>
+      </c>
+      <c r="H90" t="str">
+        <f>VLOOKUP(B90,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_personality_b</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>158</v>
+      </c>
+      <c r="C91" t="s">
+        <v>159</v>
+      </c>
+      <c r="D91">
+        <v>0.5</v>
+      </c>
+      <c r="E91">
+        <v>80</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91" t="str">
+        <f>VLOOKUP(B91,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_personality_q</v>
+      </c>
+      <c r="H91" t="str">
+        <f>VLOOKUP(B91,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_personality_q</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C92" t="s">
+        <v>161</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>15</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92" t="str">
+        <f>VLOOKUP(B92,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_speed_c</v>
+      </c>
+      <c r="H92" t="str">
+        <f>VLOOKUP(B92,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_speed_c</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>162</v>
+      </c>
+      <c r="C93" t="s">
+        <v>163</v>
+      </c>
+      <c r="D93">
+        <v>1.5</v>
+      </c>
+      <c r="E93">
+        <v>5</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93" t="str">
+        <f>VLOOKUP(B93,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_speed_b</v>
+      </c>
+      <c r="H93" t="str">
+        <f>VLOOKUP(B93,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_speed_b</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>164</v>
+      </c>
+      <c r="C94" t="s">
+        <v>165</v>
+      </c>
+      <c r="D94">
+        <v>0.5</v>
+      </c>
+      <c r="E94">
+        <v>80</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94" t="str">
+        <f>VLOOKUP(B94,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_speed_q</v>
+      </c>
+      <c r="H94" t="str">
+        <f>VLOOKUP(B94,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_speed_q</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>166</v>
+      </c>
+      <c r="C95" t="s">
+        <v>167</v>
+      </c>
+      <c r="D95">
+        <v>0.25</v>
+      </c>
+      <c r="E95">
+        <v>175</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95" t="str">
+        <f>VLOOKUP(B95,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_speed_e</v>
+      </c>
+      <c r="H95" t="str">
+        <f>VLOOKUP(B95,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_speed_e</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>168</v>
+      </c>
+      <c r="C96" t="s">
+        <v>169</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>15</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96" t="str">
+        <f>VLOOKUP(B96,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_strength_c</v>
+      </c>
+      <c r="H96" t="str">
+        <f>VLOOKUP(B96,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_strength_c</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>170</v>
+      </c>
+      <c r="C97" t="s">
+        <v>171</v>
+      </c>
+      <c r="D97">
+        <v>1.5</v>
+      </c>
+      <c r="E97">
+        <v>5</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97" t="str">
+        <f>VLOOKUP(B97,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_strength_b</v>
+      </c>
+      <c r="H97" t="str">
+        <f>VLOOKUP(B97,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_strength_b</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>172</v>
+      </c>
+      <c r="C98" t="s">
+        <v>173</v>
+      </c>
+      <c r="D98">
+        <v>0.25</v>
+      </c>
+      <c r="E98">
+        <v>175</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98" t="str">
+        <f>VLOOKUP(B98,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_strength_e</v>
+      </c>
+      <c r="H98" t="str">
+        <f>VLOOKUP(B98,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_strength_e</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>174</v>
+      </c>
+      <c r="C99" t="s">
+        <v>175</v>
+      </c>
+      <c r="D99">
+        <v>0.5</v>
+      </c>
+      <c r="E99">
+        <v>80</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99" t="str">
+        <f>VLOOKUP(B99,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_strength_q</v>
+      </c>
+      <c r="H99" t="str">
+        <f>VLOOKUP(B99,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_strength_q</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>176</v>
+      </c>
+      <c r="C100" t="s">
+        <v>177</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>15</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100" t="str">
+        <f>VLOOKUP(B100,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_willpower_c</v>
+      </c>
+      <c r="H100" t="str">
+        <f>VLOOKUP(B100,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_willpower_c</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>178</v>
+      </c>
+      <c r="C101" t="s">
+        <v>179</v>
+      </c>
+      <c r="D101">
+        <v>1.5</v>
+      </c>
+      <c r="E101">
+        <v>5</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101" t="str">
+        <f>VLOOKUP(B101,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_willpower_b</v>
+      </c>
+      <c r="H101" t="str">
+        <f>VLOOKUP(B101,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_willpower_b</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>180</v>
+      </c>
+      <c r="C102" t="s">
+        <v>181</v>
+      </c>
+      <c r="D102">
+        <v>0.5</v>
+      </c>
+      <c r="E102">
+        <v>80</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102" t="str">
+        <f>VLOOKUP(B102,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_willpower_q</v>
+      </c>
+      <c r="H102" t="str">
+        <f>VLOOKUP(B102,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_willpower_q</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>182</v>
+      </c>
+      <c r="C103" t="s">
+        <v>183</v>
+      </c>
+      <c r="D103">
+        <v>0.25</v>
+      </c>
+      <c r="E103">
+        <v>175</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103" t="str">
+        <f>VLOOKUP(B103,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_willpower_e</v>
+      </c>
+      <c r="H103" t="str">
+        <f>VLOOKUP(B103,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_willpower_e</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>184</v>
+      </c>
+      <c r="C104" t="s">
+        <v>185</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>15</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104" t="str">
+        <f>VLOOKUP(B104,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_frost_shield_c</v>
+      </c>
+      <c r="H104" t="str">
+        <f>VLOOKUP(B104,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_frost_shield_c</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>186</v>
+      </c>
+      <c r="C105" t="s">
+        <v>187</v>
+      </c>
+      <c r="D105">
+        <v>1.5</v>
+      </c>
+      <c r="E105">
+        <v>5</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105" t="str">
+        <f>VLOOKUP(B105,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_frost_shield_b</v>
+      </c>
+      <c r="H105" t="str">
+        <f>VLOOKUP(B105,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_frost_shield_b</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>188</v>
+      </c>
+      <c r="C106" t="s">
+        <v>189</v>
+      </c>
+      <c r="D106">
+        <v>0.25</v>
+      </c>
+      <c r="E106">
+        <v>175</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106" t="str">
+        <f>VLOOKUP(B106,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_frost_shield_e</v>
+      </c>
+      <c r="H106" t="str">
+        <f>VLOOKUP(B106,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_frost_shield_e</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" t="s">
+        <v>190</v>
+      </c>
+      <c r="C107" t="s">
+        <v>191</v>
+      </c>
+      <c r="D107">
+        <v>0.5</v>
+      </c>
+      <c r="E107">
+        <v>80</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107" t="str">
+        <f>VLOOKUP(B107,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_frost_shield_q</v>
+      </c>
+      <c r="H107" t="str">
+        <f>VLOOKUP(B107,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_frost_shield_q</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>192</v>
+      </c>
+      <c r="C108" t="s">
+        <v>193</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>15</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108" t="str">
+        <f>VLOOKUP(B108,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_invisibility_c</v>
+      </c>
+      <c r="H108" t="str">
+        <f>VLOOKUP(B108,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_invisibility_c</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>194</v>
+      </c>
+      <c r="C109" t="s">
+        <v>195</v>
+      </c>
+      <c r="D109">
+        <v>1.5</v>
+      </c>
+      <c r="E109">
+        <v>5</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109" t="str">
+        <f>VLOOKUP(B109,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_invisibility_b</v>
+      </c>
+      <c r="H109" t="str">
+        <f>VLOOKUP(B109,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_invisibility_b</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>196</v>
+      </c>
+      <c r="C110" t="s">
+        <v>197</v>
+      </c>
+      <c r="D110">
+        <v>0.5</v>
+      </c>
+      <c r="E110">
+        <v>80</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110" t="str">
+        <f>VLOOKUP(B110,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_invisibility_q</v>
+      </c>
+      <c r="H110" t="str">
+        <f>VLOOKUP(B110,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_invisibility_q</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>198</v>
+      </c>
+      <c r="C111" t="s">
+        <v>199</v>
+      </c>
+      <c r="D111">
+        <v>0.25</v>
+      </c>
+      <c r="E111">
+        <v>175</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111" t="str">
+        <f>VLOOKUP(B111,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_invisibility_e</v>
+      </c>
+      <c r="H111" t="str">
+        <f>VLOOKUP(B111,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_invisibility_e</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>200</v>
+      </c>
+      <c r="C112" t="s">
+        <v>201</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>15</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112" t="str">
+        <f>VLOOKUP(B112,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_jump_c</v>
+      </c>
+      <c r="H112" t="str">
+        <f>VLOOKUP(B112,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_jump_c</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" t="s">
+        <v>202</v>
+      </c>
+      <c r="C113" t="s">
+        <v>203</v>
+      </c>
+      <c r="D113">
+        <v>1.5</v>
+      </c>
+      <c r="E113">
+        <v>5</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113" t="str">
+        <f>VLOOKUP(B113,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_jump_b</v>
+      </c>
+      <c r="H113" t="str">
+        <f>VLOOKUP(B113,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_jump_b</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" t="s">
+        <v>204</v>
+      </c>
+      <c r="C114" t="s">
+        <v>205</v>
+      </c>
+      <c r="D114">
+        <v>0.25</v>
+      </c>
+      <c r="E114">
+        <v>175</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114" t="str">
+        <f>VLOOKUP(B114,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_jump_e</v>
+      </c>
+      <c r="H114" t="str">
+        <f>VLOOKUP(B114,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_jump_e</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>206</v>
+      </c>
+      <c r="C115" t="s">
+        <v>207</v>
+      </c>
+      <c r="D115">
+        <v>0.75</v>
+      </c>
+      <c r="E115">
+        <v>35</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115" t="str">
+        <f>VLOOKUP(B115,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_jump_s</v>
+      </c>
+      <c r="H115" t="str">
+        <f>VLOOKUP(B115,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_jump_s</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" t="s">
+        <v>208</v>
+      </c>
+      <c r="C116" t="s">
+        <v>209</v>
+      </c>
+      <c r="D116">
+        <v>0.5</v>
+      </c>
+      <c r="E116">
+        <v>80</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116" t="str">
+        <f>VLOOKUP(B116,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_jump_q</v>
+      </c>
+      <c r="H116" t="str">
+        <f>VLOOKUP(B116,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_jump_q</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" t="s">
+        <v>210</v>
+      </c>
+      <c r="C117" t="s">
+        <v>211</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>15</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117" t="str">
+        <f>VLOOKUP(B117,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_levitation_c</v>
+      </c>
+      <c r="H117" t="str">
+        <f>VLOOKUP(B117,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_levitation_c</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" t="s">
+        <v>212</v>
+      </c>
+      <c r="C118" t="s">
+        <v>213</v>
+      </c>
+      <c r="D118">
+        <v>1.5</v>
+      </c>
+      <c r="E118">
+        <v>5</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118" t="str">
+        <f>VLOOKUP(B118,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_levitation_b</v>
+      </c>
+      <c r="H118" t="str">
+        <f>VLOOKUP(B118,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_levitation_b</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" t="s">
+        <v>214</v>
+      </c>
+      <c r="C119" t="s">
+        <v>215</v>
+      </c>
+      <c r="D119">
+        <v>0.5</v>
+      </c>
+      <c r="E119">
+        <v>80</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119" t="str">
+        <f>VLOOKUP(B119,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>P_Levitation_Q</v>
+      </c>
+      <c r="H119" t="str">
+        <f>VLOOKUP(B119,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>P_Levitation_Q</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" t="s">
+        <v>216</v>
+      </c>
+      <c r="C120" t="s">
+        <v>217</v>
+      </c>
+      <c r="D120">
+        <v>0.25</v>
+      </c>
+      <c r="E120">
+        <v>175</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120" t="str">
+        <f>VLOOKUP(B120,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_levitation_e</v>
+      </c>
+      <c r="H120" t="str">
+        <f>VLOOKUP(B120,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_levitation_e</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" t="s">
+        <v>218</v>
+      </c>
+      <c r="C121" t="s">
+        <v>219</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>15</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121" t="str">
+        <f>VLOOKUP(B121,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_light_c</v>
+      </c>
+      <c r="H121" t="str">
+        <f>VLOOKUP(B121,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_light_c</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" t="s">
+        <v>220</v>
+      </c>
+      <c r="C122" t="s">
+        <v>221</v>
+      </c>
+      <c r="D122">
+        <v>1.5</v>
+      </c>
+      <c r="E122">
+        <v>5</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122" t="str">
+        <f>VLOOKUP(B122,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_light_b</v>
+      </c>
+      <c r="H122" t="str">
+        <f>VLOOKUP(B122,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_light_b</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" t="s">
+        <v>222</v>
+      </c>
+      <c r="C123" t="s">
+        <v>223</v>
+      </c>
+      <c r="D123">
+        <v>0.25</v>
+      </c>
+      <c r="E123">
+        <v>175</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123" t="str">
+        <f>VLOOKUP(B123,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_light_e</v>
+      </c>
+      <c r="H123" t="str">
+        <f>VLOOKUP(B123,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_light_e</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" t="s">
+        <v>224</v>
+      </c>
+      <c r="C124" t="s">
+        <v>225</v>
+      </c>
+      <c r="D124">
+        <v>0.5</v>
+      </c>
+      <c r="E124">
+        <v>80</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124" t="str">
+        <f>VLOOKUP(B124,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_light_q</v>
+      </c>
+      <c r="H124" t="str">
+        <f>VLOOKUP(B124,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_light_q</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125" t="s">
+        <v>226</v>
+      </c>
+      <c r="C125" t="s">
+        <v>227</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>15</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125" t="str">
+        <f>VLOOKUP(B125,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_lightning shield_c</v>
+      </c>
+      <c r="H125" t="str">
+        <f>VLOOKUP(B125,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_lightning shield_c</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" t="s">
+        <v>228</v>
+      </c>
+      <c r="C126" t="s">
+        <v>229</v>
+      </c>
+      <c r="D126">
+        <v>0.25</v>
+      </c>
+      <c r="E126">
+        <v>175</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126" t="str">
+        <f>VLOOKUP(B126,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_lightning shield_e</v>
+      </c>
+      <c r="H126" t="str">
+        <f>VLOOKUP(B126,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_lightning shield_e</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" t="s">
+        <v>230</v>
+      </c>
+      <c r="C127" t="s">
+        <v>231</v>
+      </c>
+      <c r="D127">
+        <v>0.5</v>
+      </c>
+      <c r="E127">
+        <v>80</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127" t="str">
+        <f>VLOOKUP(B127,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_lightning shield_q</v>
+      </c>
+      <c r="H127" t="str">
+        <f>VLOOKUP(B127,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_lightning shield_q</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" t="s">
+        <v>232</v>
+      </c>
+      <c r="C128" t="s">
+        <v>233</v>
+      </c>
+      <c r="D128">
+        <v>1.5</v>
+      </c>
+      <c r="E128">
+        <v>5</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128" t="str">
+        <f>VLOOKUP(B128,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_lightning shield_b</v>
+      </c>
+      <c r="H128" t="str">
+        <f>VLOOKUP(B128,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_lightning shield_b</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" t="s">
+        <v>234</v>
+      </c>
+      <c r="C129" t="s">
+        <v>235</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>15</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129" t="str">
+        <f>VLOOKUP(B129,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_night-eye_c</v>
+      </c>
+      <c r="H129" t="str">
+        <f>VLOOKUP(B129,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_night-eye_c</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>0</v>
+      </c>
+      <c r="B130" t="s">
+        <v>236</v>
+      </c>
+      <c r="C130" t="s">
+        <v>237</v>
+      </c>
+      <c r="D130">
+        <v>1.5</v>
+      </c>
+      <c r="E130">
+        <v>5</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130" t="str">
+        <f>VLOOKUP(B130,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_night-eye_b</v>
+      </c>
+      <c r="H130" t="str">
+        <f>VLOOKUP(B130,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_night-eye_b</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" t="s">
+        <v>238</v>
+      </c>
+      <c r="C131" t="s">
+        <v>239</v>
+      </c>
+      <c r="D131">
+        <v>0.5</v>
+      </c>
+      <c r="E131">
+        <v>80</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131" t="str">
+        <f>VLOOKUP(B131,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_night-eye_q</v>
+      </c>
+      <c r="H131" t="str">
+        <f>VLOOKUP(B131,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_night-eye_q</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132" t="s">
+        <v>240</v>
+      </c>
+      <c r="C132" t="s">
+        <v>241</v>
+      </c>
+      <c r="D132">
+        <v>0.25</v>
+      </c>
+      <c r="E132">
+        <v>175</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132" t="str">
+        <f>VLOOKUP(B132,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_night-eye_e</v>
+      </c>
+      <c r="H132" t="str">
+        <f>VLOOKUP(B132,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_night-eye_e</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" t="s">
+        <v>242</v>
+      </c>
+      <c r="C133" t="s">
+        <v>243</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>15</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133" t="str">
+        <f>VLOOKUP(B133,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_paralyze_c</v>
+      </c>
+      <c r="H133" t="str">
+        <f>VLOOKUP(B133,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_paralyze_c</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" t="s">
+        <v>244</v>
+      </c>
+      <c r="C134" t="s">
+        <v>245</v>
+      </c>
+      <c r="D134">
+        <v>1.5</v>
+      </c>
+      <c r="E134">
+        <v>5</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134" t="str">
+        <f>VLOOKUP(B134,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_paralyze_b</v>
+      </c>
+      <c r="H134" t="str">
+        <f>VLOOKUP(B134,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_paralyze_b</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135" t="s">
+        <v>246</v>
+      </c>
+      <c r="C135" t="s">
+        <v>247</v>
+      </c>
+      <c r="D135">
+        <v>0.25</v>
+      </c>
+      <c r="E135">
+        <v>175</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135" t="str">
+        <f>VLOOKUP(B135,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_paralyze_e</v>
+      </c>
+      <c r="H135" t="str">
+        <f>VLOOKUP(B135,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_paralyze_e</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>0</v>
+      </c>
+      <c r="B136" t="s">
+        <v>248</v>
+      </c>
+      <c r="C136" t="s">
+        <v>249</v>
+      </c>
+      <c r="D136">
+        <v>0.5</v>
+      </c>
+      <c r="E136">
+        <v>80</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136" t="str">
+        <f>VLOOKUP(B136,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_paralyze_q</v>
+      </c>
+      <c r="H136" t="str">
+        <f>VLOOKUP(B136,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_paralyze_q</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" t="s">
+        <v>250</v>
+      </c>
+      <c r="C137" t="s">
+        <v>251</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>15</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137" t="str">
+        <f>VLOOKUP(B137,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_reflection_c</v>
+      </c>
+      <c r="H137" t="str">
+        <f>VLOOKUP(B137,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_reflection_c</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138" t="s">
+        <v>252</v>
+      </c>
+      <c r="C138" t="s">
+        <v>253</v>
+      </c>
+      <c r="D138">
+        <v>1.5</v>
+      </c>
+      <c r="E138">
+        <v>5</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138" t="str">
+        <f>VLOOKUP(B138,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_reflection_b</v>
+      </c>
+      <c r="H138" t="str">
+        <f>VLOOKUP(B138,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_reflection_b</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139" t="s">
+        <v>254</v>
+      </c>
+      <c r="C139" t="s">
+        <v>255</v>
+      </c>
+      <c r="D139">
+        <v>0.5</v>
+      </c>
+      <c r="E139">
+        <v>80</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139" t="str">
+        <f>VLOOKUP(B139,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_reflection_q</v>
+      </c>
+      <c r="H139" t="str">
+        <f>VLOOKUP(B139,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_reflection_q</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140" t="s">
+        <v>256</v>
+      </c>
+      <c r="C140" t="s">
+        <v>257</v>
+      </c>
+      <c r="D140">
+        <v>0.25</v>
+      </c>
+      <c r="E140">
+        <v>175</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140" t="str">
+        <f>VLOOKUP(B140,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_reflection_e</v>
+      </c>
+      <c r="H140" t="str">
+        <f>VLOOKUP(B140,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_reflection_e</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>0</v>
+      </c>
+      <c r="B141" t="s">
+        <v>258</v>
+      </c>
+      <c r="C141" t="s">
+        <v>259</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141">
+        <v>15</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141" t="str">
+        <f>VLOOKUP(B141,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_disease_resistance_c</v>
+      </c>
+      <c r="H141" t="str">
+        <f>VLOOKUP(B141,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_disease_resistance_c</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142" t="s">
+        <v>260</v>
+      </c>
+      <c r="C142" t="s">
+        <v>261</v>
+      </c>
+      <c r="D142">
+        <v>0.75</v>
+      </c>
+      <c r="E142">
+        <v>35</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142" t="str">
+        <f>VLOOKUP(B142,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_disease_resistance_s</v>
+      </c>
+      <c r="H142" t="str">
+        <f>VLOOKUP(B142,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_disease_resistance_s</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143" t="s">
+        <v>262</v>
+      </c>
+      <c r="C143" t="s">
+        <v>263</v>
+      </c>
+      <c r="D143">
+        <v>1.5</v>
+      </c>
+      <c r="E143">
+        <v>5</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143" t="str">
+        <f>VLOOKUP(B143,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_disease_resistance_b</v>
+      </c>
+      <c r="H143" t="str">
+        <f>VLOOKUP(B143,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_disease_resistance_b</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144" t="s">
+        <v>264</v>
+      </c>
+      <c r="C144" t="s">
+        <v>265</v>
+      </c>
+      <c r="D144">
+        <v>0.5</v>
+      </c>
+      <c r="E144">
+        <v>80</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144" t="str">
+        <f>VLOOKUP(B144,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_disease_resistance_q</v>
+      </c>
+      <c r="H144" t="str">
+        <f>VLOOKUP(B144,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_disease_resistance_q</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145" t="s">
+        <v>266</v>
+      </c>
+      <c r="C145" t="s">
+        <v>267</v>
+      </c>
+      <c r="D145">
+        <v>0.25</v>
+      </c>
+      <c r="E145">
+        <v>175</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145" t="str">
+        <f>VLOOKUP(B145,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_disease_resistance_e</v>
+      </c>
+      <c r="H145" t="str">
+        <f>VLOOKUP(B145,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_disease_resistance_e</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146" t="s">
+        <v>268</v>
+      </c>
+      <c r="C146" t="s">
+        <v>269</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146">
+        <v>15</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146" t="str">
+        <f>VLOOKUP(B146,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fire_resistance_c</v>
+      </c>
+      <c r="H146" t="str">
+        <f>VLOOKUP(B146,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fire_resistance_c</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147" t="s">
+        <v>270</v>
+      </c>
+      <c r="C147" t="s">
+        <v>271</v>
+      </c>
+      <c r="D147">
+        <v>1.5</v>
+      </c>
+      <c r="E147">
+        <v>5</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147" t="str">
+        <f>VLOOKUP(B147,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fire_resistance_b</v>
+      </c>
+      <c r="H147" t="str">
+        <f>VLOOKUP(B147,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fire_resistance_b</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>0</v>
+      </c>
+      <c r="B148" t="s">
+        <v>272</v>
+      </c>
+      <c r="C148" t="s">
+        <v>273</v>
+      </c>
+      <c r="D148">
+        <v>0.5</v>
+      </c>
+      <c r="E148">
+        <v>80</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148" t="str">
+        <f>VLOOKUP(B148,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fire_resistance_q</v>
+      </c>
+      <c r="H148" t="str">
+        <f>VLOOKUP(B148,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fire_resistance_q</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" t="s">
+        <v>274</v>
+      </c>
+      <c r="C149" t="s">
+        <v>275</v>
+      </c>
+      <c r="D149">
+        <v>0.25</v>
+      </c>
+      <c r="E149">
+        <v>175</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149" t="str">
+        <f>VLOOKUP(B149,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fire_resistance_e</v>
+      </c>
+      <c r="H149" t="str">
+        <f>VLOOKUP(B149,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fire_resistance_e</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>0</v>
+      </c>
+      <c r="B150" t="s">
+        <v>276</v>
+      </c>
+      <c r="C150" t="s">
+        <v>277</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150">
+        <v>15</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150" t="str">
+        <f>VLOOKUP(B150,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_frost_resistance_c</v>
+      </c>
+      <c r="H150" t="str">
+        <f>VLOOKUP(B150,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_frost_resistance_c</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151" t="s">
+        <v>278</v>
+      </c>
+      <c r="C151" t="s">
+        <v>279</v>
+      </c>
+      <c r="D151">
+        <v>1.5</v>
+      </c>
+      <c r="E151">
+        <v>5</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151" t="str">
+        <f>VLOOKUP(B151,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_frost_resistance_b</v>
+      </c>
+      <c r="H151" t="str">
+        <f>VLOOKUP(B151,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_frost_resistance_b</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>0</v>
+      </c>
+      <c r="B152" t="s">
+        <v>280</v>
+      </c>
+      <c r="C152" t="s">
+        <v>281</v>
+      </c>
+      <c r="D152">
+        <v>0.25</v>
+      </c>
+      <c r="E152">
+        <v>175</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152" t="str">
+        <f>VLOOKUP(B152,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_frost_resistance_e</v>
+      </c>
+      <c r="H152" t="str">
+        <f>VLOOKUP(B152,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_frost_resistance_e</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>0</v>
+      </c>
+      <c r="B153" t="s">
+        <v>282</v>
+      </c>
+      <c r="C153" t="s">
+        <v>283</v>
+      </c>
+      <c r="D153">
+        <v>0.5</v>
+      </c>
+      <c r="E153">
+        <v>80</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153" t="str">
+        <f>VLOOKUP(B153,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_frost_resistance_q</v>
+      </c>
+      <c r="H153" t="str">
+        <f>VLOOKUP(B153,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_frost_resistance_q</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>0</v>
+      </c>
+      <c r="B154" t="s">
+        <v>284</v>
+      </c>
+      <c r="C154" t="s">
+        <v>285</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="E154">
+        <v>15</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154" t="str">
+        <f>VLOOKUP(B154,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_magicka_resistance_c</v>
+      </c>
+      <c r="H154" t="str">
+        <f>VLOOKUP(B154,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_magicka_resistance_c</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" t="s">
+        <v>286</v>
+      </c>
+      <c r="C155" t="s">
+        <v>287</v>
+      </c>
+      <c r="D155">
+        <v>1.5</v>
+      </c>
+      <c r="E155">
+        <v>5</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155" t="str">
+        <f>VLOOKUP(B155,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_magicka_resistance_b</v>
+      </c>
+      <c r="H155" t="str">
+        <f>VLOOKUP(B155,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_magicka_resistance_b</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>0</v>
+      </c>
+      <c r="B156" t="s">
+        <v>288</v>
+      </c>
+      <c r="C156" t="s">
+        <v>289</v>
+      </c>
+      <c r="D156">
+        <v>0.25</v>
+      </c>
+      <c r="E156">
+        <v>175</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156" t="str">
+        <f>VLOOKUP(B156,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_magicka_resistance_e</v>
+      </c>
+      <c r="H156" t="str">
+        <f>VLOOKUP(B156,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_magicka_resistance_e</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157" t="s">
+        <v>290</v>
+      </c>
+      <c r="C157" t="s">
+        <v>291</v>
+      </c>
+      <c r="D157">
+        <v>0.5</v>
+      </c>
+      <c r="E157">
+        <v>80</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157" t="str">
+        <f>VLOOKUP(B157,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_magicka_resistance_q</v>
+      </c>
+      <c r="H157" t="str">
+        <f>VLOOKUP(B157,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_magicka_resistance_q</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>0</v>
+      </c>
+      <c r="B158" t="s">
+        <v>292</v>
+      </c>
+      <c r="C158" t="s">
+        <v>293</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+      <c r="E158">
+        <v>15</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158" t="str">
+        <f>VLOOKUP(B158,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_poison_resistance_c</v>
+      </c>
+      <c r="H158" t="str">
+        <f>VLOOKUP(B158,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_poison_resistance_c</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>0</v>
+      </c>
+      <c r="B159" t="s">
+        <v>294</v>
+      </c>
+      <c r="C159" t="s">
+        <v>295</v>
+      </c>
+      <c r="D159">
+        <v>1.5</v>
+      </c>
+      <c r="E159">
+        <v>5</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159" t="str">
+        <f>VLOOKUP(B159,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_poison_resistance_b</v>
+      </c>
+      <c r="H159" t="str">
+        <f>VLOOKUP(B159,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_poison_resistance_b</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>0</v>
+      </c>
+      <c r="B160" t="s">
+        <v>296</v>
+      </c>
+      <c r="C160" t="s">
+        <v>297</v>
+      </c>
+      <c r="D160">
+        <v>0.25</v>
+      </c>
+      <c r="E160">
+        <v>175</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160" t="str">
+        <f>VLOOKUP(B160,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_poison_resistance_e</v>
+      </c>
+      <c r="H160" t="str">
+        <f>VLOOKUP(B160,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_poison_resistance_e</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>0</v>
+      </c>
+      <c r="B161" t="s">
+        <v>298</v>
+      </c>
+      <c r="C161" t="s">
+        <v>299</v>
+      </c>
+      <c r="D161">
+        <v>0.5</v>
+      </c>
+      <c r="E161">
+        <v>80</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161" t="str">
+        <f>VLOOKUP(B161,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_poison_resistance_q</v>
+      </c>
+      <c r="H161" t="str">
+        <f>VLOOKUP(B161,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_poison_resistance_q</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>0</v>
+      </c>
+      <c r="B162" t="s">
+        <v>300</v>
+      </c>
+      <c r="C162" t="s">
+        <v>301</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162">
+        <v>15</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162" t="str">
+        <f>VLOOKUP(B162,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_shock_resistance_c</v>
+      </c>
+      <c r="H162" t="str">
+        <f>VLOOKUP(B162,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_shock_resistance_c</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B163" t="s">
+        <v>302</v>
+      </c>
+      <c r="C163" t="s">
+        <v>303</v>
+      </c>
+      <c r="D163">
+        <v>1.5</v>
+      </c>
+      <c r="E163">
+        <v>5</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163" t="str">
+        <f>VLOOKUP(B163,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_shock_resistance_b</v>
+      </c>
+      <c r="H163" t="str">
+        <f>VLOOKUP(B163,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_shock_resistance_b</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>0</v>
+      </c>
+      <c r="B164" t="s">
+        <v>304</v>
+      </c>
+      <c r="C164" t="s">
+        <v>305</v>
+      </c>
+      <c r="D164">
+        <v>0.25</v>
+      </c>
+      <c r="E164">
+        <v>175</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164" t="str">
+        <f>VLOOKUP(B164,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_shock_resistance_e</v>
+      </c>
+      <c r="H164" t="str">
+        <f>VLOOKUP(B164,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_shock_resistance_e</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>0</v>
+      </c>
+      <c r="B165" t="s">
+        <v>306</v>
+      </c>
+      <c r="C165" t="s">
+        <v>307</v>
+      </c>
+      <c r="D165">
+        <v>0.5</v>
+      </c>
+      <c r="E165">
+        <v>80</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165" t="str">
+        <f>VLOOKUP(B165,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_shock_resistance_q</v>
+      </c>
+      <c r="H165" t="str">
+        <f>VLOOKUP(B165,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_shock_resistance_q</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>0</v>
+      </c>
+      <c r="B166" t="s">
+        <v>308</v>
+      </c>
+      <c r="C166" t="s">
+        <v>309</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166">
+        <v>15</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166" t="str">
+        <f>VLOOKUP(B166,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_agility_c</v>
+      </c>
+      <c r="H166" t="str">
+        <f>VLOOKUP(B166,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_agility_c</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>0</v>
+      </c>
+      <c r="B167" t="s">
+        <v>310</v>
+      </c>
+      <c r="C167" t="s">
+        <v>311</v>
+      </c>
+      <c r="D167">
+        <v>1.5</v>
+      </c>
+      <c r="E167">
+        <v>5</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167" t="str">
+        <f>VLOOKUP(B167,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_agility_b</v>
+      </c>
+      <c r="H167" t="str">
+        <f>VLOOKUP(B167,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_agility_b</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>0</v>
+      </c>
+      <c r="B168" t="s">
+        <v>312</v>
+      </c>
+      <c r="C168" t="s">
+        <v>313</v>
+      </c>
+      <c r="D168">
+        <v>0.5</v>
+      </c>
+      <c r="E168">
+        <v>80</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168" t="str">
+        <f>VLOOKUP(B168,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_agility_q</v>
+      </c>
+      <c r="H168" t="str">
+        <f>VLOOKUP(B168,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_agility_q</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>0</v>
+      </c>
+      <c r="B169" t="s">
+        <v>314</v>
+      </c>
+      <c r="C169" t="s">
+        <v>315</v>
+      </c>
+      <c r="D169">
+        <v>0.25</v>
+      </c>
+      <c r="E169">
+        <v>175</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169" t="str">
+        <f>VLOOKUP(B169,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_agility_e</v>
+      </c>
+      <c r="H169" t="str">
+        <f>VLOOKUP(B169,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_agility_e</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>0</v>
+      </c>
+      <c r="B170" t="s">
+        <v>316</v>
+      </c>
+      <c r="C170" t="s">
+        <v>317</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+      <c r="E170">
+        <v>15</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170" t="str">
+        <f>VLOOKUP(B170,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_endurance_c</v>
+      </c>
+      <c r="H170" t="str">
+        <f>VLOOKUP(B170,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_endurance_c</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>0</v>
+      </c>
+      <c r="B171" t="s">
+        <v>318</v>
+      </c>
+      <c r="C171" t="s">
+        <v>319</v>
+      </c>
+      <c r="D171">
+        <v>1.5</v>
+      </c>
+      <c r="E171">
+        <v>5</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171" t="str">
+        <f>VLOOKUP(B171,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_endurance_b</v>
+      </c>
+      <c r="H171" t="str">
+        <f>VLOOKUP(B171,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_endurance_b</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>0</v>
+      </c>
+      <c r="B172" t="s">
+        <v>320</v>
+      </c>
+      <c r="C172" t="s">
+        <v>321</v>
+      </c>
+      <c r="D172">
+        <v>0.5</v>
+      </c>
+      <c r="E172">
+        <v>80</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172" t="str">
+        <f>VLOOKUP(B172,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_endurance_q</v>
+      </c>
+      <c r="H172" t="str">
+        <f>VLOOKUP(B172,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_endurance_q</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>0</v>
+      </c>
+      <c r="B173" t="s">
+        <v>322</v>
+      </c>
+      <c r="C173" t="s">
+        <v>323</v>
+      </c>
+      <c r="D173">
+        <v>0.25</v>
+      </c>
+      <c r="E173">
+        <v>175</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173" t="str">
+        <f>VLOOKUP(B173,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_endurance_e</v>
+      </c>
+      <c r="H173" t="str">
+        <f>VLOOKUP(B173,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_endurance_e</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>0</v>
+      </c>
+      <c r="B174" t="s">
+        <v>324</v>
+      </c>
+      <c r="C174" t="s">
+        <v>325</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+      <c r="E174">
+        <v>15</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174" t="str">
+        <f>VLOOKUP(B174,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_fatigue_c</v>
+      </c>
+      <c r="H174" t="str">
+        <f>VLOOKUP(B174,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_fatigue_c</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>0</v>
+      </c>
+      <c r="B175" t="s">
+        <v>326</v>
+      </c>
+      <c r="C175" t="s">
+        <v>327</v>
+      </c>
+      <c r="D175">
+        <v>1.5</v>
+      </c>
+      <c r="E175">
+        <v>5</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175" t="str">
+        <f>VLOOKUP(B175,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_fatigue_b</v>
+      </c>
+      <c r="H175" t="str">
+        <f>VLOOKUP(B175,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_fatigue_b</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B176" t="s">
+        <v>328</v>
+      </c>
+      <c r="C176" t="s">
+        <v>329</v>
+      </c>
+      <c r="D176">
+        <v>0.5</v>
+      </c>
+      <c r="E176">
+        <v>80</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176" t="str">
+        <f>VLOOKUP(B176,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_fatigue_q</v>
+      </c>
+      <c r="H176" t="str">
+        <f>VLOOKUP(B176,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_fatigue_q</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>0</v>
+      </c>
+      <c r="B177" t="s">
+        <v>330</v>
+      </c>
+      <c r="C177" t="s">
+        <v>331</v>
+      </c>
+      <c r="D177">
+        <v>0.25</v>
+      </c>
+      <c r="E177">
+        <v>175</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177" t="str">
+        <f>VLOOKUP(B177,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_fatigue_e</v>
+      </c>
+      <c r="H177" t="str">
+        <f>VLOOKUP(B177,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_fatigue_e</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>0</v>
+      </c>
+      <c r="B178" t="s">
+        <v>332</v>
+      </c>
+      <c r="C178" t="s">
+        <v>333</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+      <c r="E178">
+        <v>15</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178" t="str">
+        <f>VLOOKUP(B178,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_health_c</v>
+      </c>
+      <c r="H178" t="str">
+        <f>VLOOKUP(B178,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_health_c</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>0</v>
+      </c>
+      <c r="B179" t="s">
+        <v>334</v>
+      </c>
+      <c r="C179" t="s">
+        <v>335</v>
+      </c>
+      <c r="D179">
+        <v>1</v>
+      </c>
+      <c r="E179">
+        <v>15</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179" t="str">
+        <f>VLOOKUP(B179,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_intelligence_c</v>
+      </c>
+      <c r="H179" t="str">
+        <f>VLOOKUP(B179,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_intelligence_c</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B180" t="s">
+        <v>336</v>
+      </c>
+      <c r="C180" t="s">
+        <v>337</v>
+      </c>
+      <c r="D180">
+        <v>0.25</v>
+      </c>
+      <c r="E180">
+        <v>175</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180" t="str">
+        <f>VLOOKUP(B180,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_intelligence_e</v>
+      </c>
+      <c r="H180" t="str">
+        <f>VLOOKUP(B180,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_intelligence_e</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>0</v>
+      </c>
+      <c r="B181" t="s">
+        <v>338</v>
+      </c>
+      <c r="C181" t="s">
+        <v>339</v>
+      </c>
+      <c r="D181">
+        <v>0.5</v>
+      </c>
+      <c r="E181">
+        <v>80</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181" t="str">
+        <f>VLOOKUP(B181,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_intelligence_q</v>
+      </c>
+      <c r="H181" t="str">
+        <f>VLOOKUP(B181,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_intelligence_q</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>0</v>
+      </c>
+      <c r="B182" t="s">
+        <v>340</v>
+      </c>
+      <c r="C182" t="s">
+        <v>341</v>
+      </c>
+      <c r="D182">
+        <v>1.5</v>
+      </c>
+      <c r="E182">
+        <v>5</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182" t="str">
+        <f>VLOOKUP(B182,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_intelligence_b</v>
+      </c>
+      <c r="H182" t="str">
+        <f>VLOOKUP(B182,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_intelligence_b</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B183" t="s">
+        <v>342</v>
+      </c>
+      <c r="C183" t="s">
+        <v>343</v>
+      </c>
+      <c r="D183">
+        <v>1.5</v>
+      </c>
+      <c r="E183">
+        <v>5</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183" t="str">
+        <f>VLOOKUP(B183,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_luck_b</v>
+      </c>
+      <c r="H183" t="str">
+        <f>VLOOKUP(B183,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_luck_b</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>0</v>
+      </c>
+      <c r="B184" t="s">
+        <v>344</v>
+      </c>
+      <c r="C184" t="s">
+        <v>345</v>
+      </c>
+      <c r="D184">
+        <v>0.5</v>
+      </c>
+      <c r="E184">
+        <v>80</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184" t="str">
+        <f>VLOOKUP(B184,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_luck_q</v>
+      </c>
+      <c r="H184" t="str">
+        <f>VLOOKUP(B184,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_luck_q</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>0</v>
+      </c>
+      <c r="B185" t="s">
+        <v>346</v>
+      </c>
+      <c r="C185" t="s">
+        <v>347</v>
+      </c>
+      <c r="D185">
+        <v>0.25</v>
+      </c>
+      <c r="E185">
+        <v>175</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185" t="str">
+        <f>VLOOKUP(B185,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_luck_e</v>
+      </c>
+      <c r="H185" t="str">
+        <f>VLOOKUP(B185,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_luck_e</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>0</v>
+      </c>
+      <c r="B186" t="s">
+        <v>348</v>
+      </c>
+      <c r="C186" t="s">
+        <v>349</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="E186">
+        <v>15</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186" t="str">
+        <f>VLOOKUP(B186,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_luck_c</v>
+      </c>
+      <c r="H186" t="str">
+        <f>VLOOKUP(B186,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_luck_c</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B187" t="s">
+        <v>350</v>
+      </c>
+      <c r="C187" t="s">
+        <v>351</v>
+      </c>
+      <c r="D187">
+        <v>1.5</v>
+      </c>
+      <c r="E187">
+        <v>5</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187" t="str">
+        <f>VLOOKUP(B187,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_personality_b</v>
+      </c>
+      <c r="H187" t="str">
+        <f>VLOOKUP(B187,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_personality_b</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>0</v>
+      </c>
+      <c r="B188" t="s">
+        <v>352</v>
+      </c>
+      <c r="C188" t="s">
+        <v>353</v>
+      </c>
+      <c r="D188">
+        <v>1</v>
+      </c>
+      <c r="E188">
+        <v>15</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188" t="str">
+        <f>VLOOKUP(B188,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_personality_c</v>
+      </c>
+      <c r="H188" t="str">
+        <f>VLOOKUP(B188,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_personality_c</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>0</v>
+      </c>
+      <c r="B189" t="s">
+        <v>354</v>
+      </c>
+      <c r="C189" t="s">
+        <v>355</v>
+      </c>
+      <c r="D189">
+        <v>0.25</v>
+      </c>
+      <c r="E189">
+        <v>175</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189" t="str">
+        <f>VLOOKUP(B189,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_personality_e</v>
+      </c>
+      <c r="H189" t="str">
+        <f>VLOOKUP(B189,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_personality_e</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>0</v>
+      </c>
+      <c r="B190" t="s">
+        <v>356</v>
+      </c>
+      <c r="C190" t="s">
+        <v>357</v>
+      </c>
+      <c r="D190">
+        <v>0.5</v>
+      </c>
+      <c r="E190">
+        <v>80</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190" t="str">
+        <f>VLOOKUP(B190,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_personality_q</v>
+      </c>
+      <c r="H190" t="str">
+        <f>VLOOKUP(B190,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_personality_q</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>0</v>
+      </c>
+      <c r="B191" t="s">
+        <v>358</v>
+      </c>
+      <c r="C191" t="s">
+        <v>359</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
+      </c>
+      <c r="E191">
+        <v>15</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191" t="str">
+        <f>VLOOKUP(B191,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_speed_c</v>
+      </c>
+      <c r="H191" t="str">
+        <f>VLOOKUP(B191,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_speed_c</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>0</v>
+      </c>
+      <c r="B192" t="s">
+        <v>360</v>
+      </c>
+      <c r="C192" t="s">
+        <v>361</v>
+      </c>
+      <c r="D192">
+        <v>1.5</v>
+      </c>
+      <c r="E192">
+        <v>5</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192" t="str">
+        <f>VLOOKUP(B192,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_speed_b</v>
+      </c>
+      <c r="H192" t="str">
+        <f>VLOOKUP(B192,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_speed_b</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>362</v>
+      </c>
+      <c r="C193" t="s">
+        <v>363</v>
+      </c>
+      <c r="D193">
+        <v>0.5</v>
+      </c>
+      <c r="E193">
+        <v>80</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193" t="str">
+        <f>VLOOKUP(B193,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_speed_q</v>
+      </c>
+      <c r="H193" t="str">
+        <f>VLOOKUP(B193,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_speed_q</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>0</v>
+      </c>
+      <c r="B194" t="s">
+        <v>364</v>
+      </c>
+      <c r="C194" t="s">
+        <v>365</v>
+      </c>
+      <c r="D194">
+        <v>0.25</v>
+      </c>
+      <c r="E194">
+        <v>175</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194" t="str">
+        <f>VLOOKUP(B194,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_speed_e</v>
+      </c>
+      <c r="H194" t="str">
+        <f>VLOOKUP(B194,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_speed_e</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>366</v>
+      </c>
+      <c r="C195" t="s">
+        <v>367</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+      <c r="E195">
+        <v>15</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195" t="str">
+        <f>VLOOKUP(B195,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_magicka_c</v>
+      </c>
+      <c r="H195" t="str">
+        <f>VLOOKUP(B195,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_magicka_c</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>368</v>
+      </c>
+      <c r="C196" t="s">
+        <v>369</v>
+      </c>
+      <c r="D196">
+        <v>1.5</v>
+      </c>
+      <c r="E196">
+        <v>5</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196" t="str">
+        <f>VLOOKUP(B196,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_magicka_b</v>
+      </c>
+      <c r="H196" t="str">
+        <f>VLOOKUP(B196,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_magicka_b</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>370</v>
+      </c>
+      <c r="C197" t="s">
+        <v>371</v>
+      </c>
+      <c r="D197">
+        <v>0.5</v>
+      </c>
+      <c r="E197">
+        <v>80</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197" t="str">
+        <f>VLOOKUP(B197,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_magicka_q</v>
+      </c>
+      <c r="H197" t="str">
+        <f>VLOOKUP(B197,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_magicka_q</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>372</v>
+      </c>
+      <c r="C198" t="s">
+        <v>373</v>
+      </c>
+      <c r="D198">
+        <v>0.25</v>
+      </c>
+      <c r="E198">
+        <v>175</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198" t="str">
+        <f>VLOOKUP(B198,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_magicka_e</v>
+      </c>
+      <c r="H198" t="str">
+        <f>VLOOKUP(B198,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_magicka_e</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>0</v>
+      </c>
+      <c r="B199" t="s">
+        <v>374</v>
+      </c>
+      <c r="C199" t="s">
+        <v>375</v>
+      </c>
+      <c r="D199">
+        <v>1</v>
+      </c>
+      <c r="E199">
+        <v>15</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199" t="str">
+        <f>VLOOKUP(B199,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_strength_c</v>
+      </c>
+      <c r="H199" t="str">
+        <f>VLOOKUP(B199,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_strength_c</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>0</v>
+      </c>
+      <c r="B200" t="s">
+        <v>376</v>
+      </c>
+      <c r="C200" t="s">
+        <v>377</v>
+      </c>
+      <c r="D200">
+        <v>1.5</v>
+      </c>
+      <c r="E200">
+        <v>5</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200" t="str">
+        <f>VLOOKUP(B200,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_strength_b</v>
+      </c>
+      <c r="H200" t="str">
+        <f>VLOOKUP(B200,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_strength_b</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B201" t="s">
+        <v>378</v>
+      </c>
+      <c r="C201" t="s">
+        <v>379</v>
+      </c>
+      <c r="D201">
+        <v>0.5</v>
+      </c>
+      <c r="E201">
+        <v>80</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201" t="str">
+        <f>VLOOKUP(B201,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_strength_q</v>
+      </c>
+      <c r="H201" t="str">
+        <f>VLOOKUP(B201,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_strength_q</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>0</v>
+      </c>
+      <c r="B202" t="s">
+        <v>380</v>
+      </c>
+      <c r="C202" t="s">
+        <v>381</v>
+      </c>
+      <c r="D202">
+        <v>0.25</v>
+      </c>
+      <c r="E202">
+        <v>175</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202" t="str">
+        <f>VLOOKUP(B202,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_strength_e</v>
+      </c>
+      <c r="H202" t="str">
+        <f>VLOOKUP(B202,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_strength_e</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>0</v>
+      </c>
+      <c r="B203" t="s">
+        <v>382</v>
+      </c>
+      <c r="C203" t="s">
+        <v>383</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+      <c r="E203">
+        <v>15</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+      <c r="G203" t="str">
+        <f>VLOOKUP(B203,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_willpower_c</v>
+      </c>
+      <c r="H203" t="str">
+        <f>VLOOKUP(B203,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_willpower_c</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>0</v>
+      </c>
+      <c r="B204" t="s">
+        <v>384</v>
+      </c>
+      <c r="C204" t="s">
+        <v>385</v>
+      </c>
+      <c r="D204">
+        <v>1.5</v>
+      </c>
+      <c r="E204">
+        <v>5</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="G204" t="str">
+        <f>VLOOKUP(B204,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_willpower_b</v>
+      </c>
+      <c r="H204" t="str">
+        <f>VLOOKUP(B204,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_willpower_b</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>0</v>
+      </c>
+      <c r="B205" t="s">
+        <v>386</v>
+      </c>
+      <c r="C205" t="s">
+        <v>387</v>
+      </c>
+      <c r="D205">
+        <v>0.5</v>
+      </c>
+      <c r="E205">
+        <v>80</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="G205" t="str">
+        <f>VLOOKUP(B205,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_willpower_q</v>
+      </c>
+      <c r="H205" t="str">
+        <f>VLOOKUP(B205,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_willpower_q</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>0</v>
+      </c>
+      <c r="B206" t="s">
+        <v>388</v>
+      </c>
+      <c r="C206" t="s">
+        <v>389</v>
+      </c>
+      <c r="D206">
+        <v>0.25</v>
+      </c>
+      <c r="E206">
+        <v>175</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+      <c r="G206" t="str">
+        <f>VLOOKUP(B206,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_willpower_e</v>
+      </c>
+      <c r="H206" t="str">
+        <f>VLOOKUP(B206,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_willpower_e</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>0</v>
+      </c>
+      <c r="B207" t="s">
+        <v>390</v>
+      </c>
+      <c r="C207" t="s">
+        <v>391</v>
+      </c>
+      <c r="D207">
+        <v>1</v>
+      </c>
+      <c r="E207">
+        <v>15</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+      <c r="G207" t="str">
+        <f>VLOOKUP(B207,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_chameleon_c</v>
+      </c>
+      <c r="H207" t="str">
+        <f>VLOOKUP(B207,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_chameleon_c</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>0</v>
+      </c>
+      <c r="B208" t="s">
+        <v>392</v>
+      </c>
+      <c r="C208" t="s">
+        <v>393</v>
+      </c>
+      <c r="D208">
+        <v>1.5</v>
+      </c>
+      <c r="E208">
+        <v>5</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+      <c r="G208" t="str">
+        <f>VLOOKUP(B208,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_chameleon_b</v>
+      </c>
+      <c r="H208" t="str">
+        <f>VLOOKUP(B208,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_chameleon_b</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>0</v>
+      </c>
+      <c r="B209" t="s">
+        <v>394</v>
+      </c>
+      <c r="C209" t="s">
+        <v>395</v>
+      </c>
+      <c r="D209">
+        <v>0.75</v>
+      </c>
+      <c r="E209">
+        <v>35</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+      <c r="G209" t="str">
+        <f>VLOOKUP(B209,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_chameleon_s</v>
+      </c>
+      <c r="H209" t="str">
+        <f>VLOOKUP(B209,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_chameleon_s</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>0</v>
+      </c>
+      <c r="B210" t="s">
+        <v>396</v>
+      </c>
+      <c r="C210" t="s">
+        <v>397</v>
+      </c>
+      <c r="D210">
+        <v>0.5</v>
+      </c>
+      <c r="E210">
+        <v>80</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="G210" t="str">
+        <f>VLOOKUP(B210,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_chameleon_q</v>
+      </c>
+      <c r="H210" t="str">
+        <f>VLOOKUP(B210,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_chameleon_q</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>0</v>
+      </c>
+      <c r="B211" t="s">
+        <v>398</v>
+      </c>
+      <c r="C211" t="s">
+        <v>399</v>
+      </c>
+      <c r="D211">
+        <v>0.25</v>
+      </c>
+      <c r="E211">
+        <v>175</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211" t="str">
+        <f>VLOOKUP(B211,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_chameleon_e</v>
+      </c>
+      <c r="H211" t="str">
+        <f>VLOOKUP(B211,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_chameleon_e</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>0</v>
+      </c>
+      <c r="B212" t="s">
+        <v>400</v>
+      </c>
+      <c r="C212" t="s">
+        <v>401</v>
+      </c>
+      <c r="D212">
+        <v>1</v>
+      </c>
+      <c r="E212">
+        <v>15</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+      <c r="G212" t="str">
+        <f>VLOOKUP(B212,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_silence_c</v>
+      </c>
+      <c r="H212" t="str">
+        <f>VLOOKUP(B212,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_silence_c</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>0</v>
+      </c>
+      <c r="B213" t="s">
+        <v>402</v>
+      </c>
+      <c r="C213" t="s">
+        <v>403</v>
+      </c>
+      <c r="D213">
+        <v>1.5</v>
+      </c>
+      <c r="E213">
+        <v>5</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+      <c r="G213" t="str">
+        <f>VLOOKUP(B213,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_silence_b</v>
+      </c>
+      <c r="H213" t="str">
+        <f>VLOOKUP(B213,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_silence_b</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>0</v>
+      </c>
+      <c r="B214" t="s">
+        <v>404</v>
+      </c>
+      <c r="C214" t="s">
+        <v>405</v>
+      </c>
+      <c r="D214">
+        <v>0.5</v>
+      </c>
+      <c r="E214">
+        <v>80</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="G214" t="str">
+        <f>VLOOKUP(B214,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_silence_q</v>
+      </c>
+      <c r="H214" t="str">
+        <f>VLOOKUP(B214,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_silence_q</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>0</v>
+      </c>
+      <c r="B215" t="s">
+        <v>406</v>
+      </c>
+      <c r="C215" t="s">
+        <v>407</v>
+      </c>
+      <c r="D215">
+        <v>0.25</v>
+      </c>
+      <c r="E215">
+        <v>175</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="G215" t="str">
+        <f>VLOOKUP(B215,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_silence_e</v>
+      </c>
+      <c r="H215" t="str">
+        <f>VLOOKUP(B215,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_silence_e</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>0</v>
+      </c>
+      <c r="B216" t="s">
+        <v>408</v>
+      </c>
+      <c r="C216" t="s">
+        <v>409</v>
+      </c>
+      <c r="D216">
+        <v>1</v>
+      </c>
+      <c r="E216">
+        <v>15</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216" t="str">
+        <f>VLOOKUP(B216,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_spell_absorption_c</v>
+      </c>
+      <c r="H216" t="str">
+        <f>VLOOKUP(B216,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_spell_absorption_c</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>0</v>
+      </c>
+      <c r="B217" t="s">
+        <v>410</v>
+      </c>
+      <c r="C217" t="s">
+        <v>411</v>
+      </c>
+      <c r="D217">
+        <v>1.5</v>
+      </c>
+      <c r="E217">
+        <v>5</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217" t="str">
+        <f>VLOOKUP(B217,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_spell_absorption_b</v>
+      </c>
+      <c r="H217" t="str">
+        <f>VLOOKUP(B217,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_spell_absorption_b</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>0</v>
+      </c>
+      <c r="B218" t="s">
+        <v>412</v>
+      </c>
+      <c r="C218" t="s">
+        <v>413</v>
+      </c>
+      <c r="D218">
+        <v>0.5</v>
+      </c>
+      <c r="E218">
+        <v>80</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+      <c r="G218" t="str">
+        <f>VLOOKUP(B218,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_spell_absorption_q</v>
+      </c>
+      <c r="H218" t="str">
+        <f>VLOOKUP(B218,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_spell_absorption_q</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>0</v>
+      </c>
+      <c r="B219" t="s">
+        <v>414</v>
+      </c>
+      <c r="C219" t="s">
+        <v>415</v>
+      </c>
+      <c r="D219">
+        <v>0.25</v>
+      </c>
+      <c r="E219">
+        <v>175</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+      <c r="G219" t="str">
+        <f>VLOOKUP(B219,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_spell_absorption_e</v>
+      </c>
+      <c r="H219" t="str">
+        <f>VLOOKUP(B219,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_spell_absorption_e</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>0</v>
+      </c>
+      <c r="B220" t="s">
+        <v>416</v>
+      </c>
+      <c r="C220" t="s">
+        <v>417</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+      <c r="E220">
+        <v>15</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220" t="str">
+        <f>VLOOKUP(B220,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_swift_swim_c</v>
+      </c>
+      <c r="H220" t="str">
+        <f>VLOOKUP(B220,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_swift_swim_c</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>0</v>
+      </c>
+      <c r="B221" t="s">
+        <v>418</v>
+      </c>
+      <c r="C221" t="s">
+        <v>419</v>
+      </c>
+      <c r="D221">
+        <v>1.5</v>
+      </c>
+      <c r="E221">
+        <v>5</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+      <c r="G221" t="str">
+        <f>VLOOKUP(B221,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_swift_swim_b</v>
+      </c>
+      <c r="H221" t="str">
+        <f>VLOOKUP(B221,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_swift_swim_b</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>0</v>
+      </c>
+      <c r="B222" t="s">
+        <v>420</v>
+      </c>
+      <c r="C222" t="s">
+        <v>421</v>
+      </c>
+      <c r="D222">
+        <v>0.5</v>
+      </c>
+      <c r="E222">
+        <v>80</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222" t="str">
+        <f>VLOOKUP(B222,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_swift_swim_q</v>
+      </c>
+      <c r="H222" t="str">
+        <f>VLOOKUP(B222,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_swift_swim_q</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>0</v>
+      </c>
+      <c r="B223" t="s">
+        <v>422</v>
+      </c>
+      <c r="C223" t="s">
+        <v>423</v>
+      </c>
+      <c r="D223">
+        <v>0.25</v>
+      </c>
+      <c r="E223">
+        <v>175</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223" t="str">
+        <f>VLOOKUP(B223,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_swift_swim_e</v>
+      </c>
+      <c r="H223" t="str">
+        <f>VLOOKUP(B223,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_swift_swim_e</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>0</v>
+      </c>
+      <c r="B224" t="s">
+        <v>424</v>
+      </c>
+      <c r="C224" t="s">
+        <v>425</v>
+      </c>
+      <c r="D224">
+        <v>1.5</v>
+      </c>
+      <c r="E224">
+        <v>5</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224" t="str">
+        <f>VLOOKUP(B224,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_health_b</v>
+      </c>
+      <c r="H224" t="str">
+        <f>VLOOKUP(B224,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_health_b</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>0</v>
+      </c>
+      <c r="B225" t="s">
+        <v>426</v>
+      </c>
+      <c r="C225" t="s">
+        <v>427</v>
+      </c>
+      <c r="D225">
+        <v>0.5</v>
+      </c>
+      <c r="E225">
+        <v>80</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225" t="str">
+        <f>VLOOKUP(B225,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_health_q</v>
+      </c>
+      <c r="H225" t="str">
+        <f>VLOOKUP(B225,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_health_q</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>0</v>
+      </c>
+      <c r="B226" t="s">
+        <v>428</v>
+      </c>
+      <c r="C226" t="s">
+        <v>429</v>
+      </c>
+      <c r="D226">
+        <v>0.25</v>
+      </c>
+      <c r="E226">
+        <v>175</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226" t="str">
+        <f>VLOOKUP(B226,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_health_e</v>
+      </c>
+      <c r="H226" t="str">
+        <f>VLOOKUP(B226,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_health_e</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>0</v>
+      </c>
+      <c r="B227" t="s">
+        <v>509</v>
+      </c>
+      <c r="C227" t="s">
+        <v>510</v>
+      </c>
+      <c r="D227">
+        <v>0.5</v>
+      </c>
+      <c r="E227">
+        <v>1500</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227" t="e">
+        <f>VLOOKUP(B227,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H227" t="str">
+        <f>VLOOKUP(B227,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>potion_ancient_brandy</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>0</v>
+      </c>
+      <c r="B228" t="s">
+        <v>430</v>
+      </c>
+      <c r="C228" t="s">
+        <v>431</v>
+      </c>
+      <c r="D228">
+        <v>0.75</v>
+      </c>
+      <c r="E228">
+        <v>35</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228" t="str">
+        <f>VLOOKUP(B228,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_almsivi_intervention_s</v>
+      </c>
+      <c r="H228" t="str">
+        <f>VLOOKUP(B228,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_almsivi_intervention_s</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>0</v>
+      </c>
+      <c r="B229" t="s">
+        <v>432</v>
+      </c>
+      <c r="C229" t="s">
+        <v>433</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>35</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229" t="str">
+        <f>VLOOKUP(B229,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_detect_creatures_s</v>
+      </c>
+      <c r="H229" t="str">
+        <f>VLOOKUP(B229,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_detect_creatures_s</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>0</v>
+      </c>
+      <c r="B230" t="s">
+        <v>434</v>
+      </c>
+      <c r="C230" t="s">
+        <v>435</v>
+      </c>
+      <c r="D230">
+        <v>0.5</v>
+      </c>
+      <c r="E230">
+        <v>20</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230" t="str">
+        <f>VLOOKUP(B230,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_cure_common_s</v>
+      </c>
+      <c r="H230" t="str">
+        <f>VLOOKUP(B230,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_cure_common_s</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>0</v>
+      </c>
+      <c r="B231" t="s">
+        <v>436</v>
+      </c>
+      <c r="C231" t="s">
+        <v>437</v>
+      </c>
+      <c r="D231">
+        <v>0.5</v>
+      </c>
+      <c r="E231">
+        <v>30</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231" t="str">
+        <f>VLOOKUP(B231,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_cure_blight_s</v>
+      </c>
+      <c r="H231" t="str">
+        <f>VLOOKUP(B231,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_cure_blight_s</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>0</v>
+      </c>
+      <c r="B232" t="s">
+        <v>438</v>
+      </c>
+      <c r="C232" t="s">
+        <v>439</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>20</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232" t="str">
+        <f>VLOOKUP(B232,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_cure_paralyzation_s</v>
+      </c>
+      <c r="H232" t="str">
+        <f>VLOOKUP(B232,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_cure_paralyzation_s</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>0</v>
+      </c>
+      <c r="B233" t="s">
+        <v>440</v>
+      </c>
+      <c r="C233" t="s">
+        <v>441</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>20</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233" t="str">
+        <f>VLOOKUP(B233,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_cure_poison_s</v>
+      </c>
+      <c r="H233" t="str">
+        <f>VLOOKUP(B233,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_cure_poison_s</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>0</v>
+      </c>
+      <c r="B234" t="s">
+        <v>442</v>
+      </c>
+      <c r="C234" t="s">
+        <v>443</v>
+      </c>
+      <c r="D234">
+        <v>1</v>
+      </c>
+      <c r="E234">
+        <v>35</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+      <c r="G234" t="str">
+        <f>VLOOKUP(B234,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_detect_key_s</v>
+      </c>
+      <c r="H234" t="str">
+        <f>VLOOKUP(B234,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_detect_key_s</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>0</v>
+      </c>
+      <c r="B235" t="s">
+        <v>444</v>
+      </c>
+      <c r="C235" t="s">
+        <v>445</v>
+      </c>
+      <c r="D235">
+        <v>1</v>
+      </c>
+      <c r="E235">
+        <v>35</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="G235" t="str">
+        <f>VLOOKUP(B235,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_dispel_s</v>
+      </c>
+      <c r="H235" t="str">
+        <f>VLOOKUP(B235,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_dispel_s</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>0</v>
+      </c>
+      <c r="B236" t="s">
+        <v>446</v>
+      </c>
+      <c r="C236" t="s">
+        <v>447</v>
+      </c>
+      <c r="D236">
+        <v>0.75</v>
+      </c>
+      <c r="E236">
+        <v>35</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="G236" t="str">
+        <f>VLOOKUP(B236,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_agility_s</v>
+      </c>
+      <c r="H236" t="str">
+        <f>VLOOKUP(B236,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_agility_s</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>0</v>
+      </c>
+      <c r="B237" t="s">
+        <v>448</v>
+      </c>
+      <c r="C237" t="s">
+        <v>449</v>
+      </c>
+      <c r="D237">
+        <v>0.75</v>
+      </c>
+      <c r="E237">
+        <v>35</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+      <c r="G237" t="str">
+        <f>VLOOKUP(B237,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_intelligence_s</v>
+      </c>
+      <c r="H237" t="str">
+        <f>VLOOKUP(B237,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_intelligence_s</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>0</v>
+      </c>
+      <c r="B238" t="s">
+        <v>450</v>
+      </c>
+      <c r="C238" t="s">
+        <v>451</v>
+      </c>
+      <c r="D238">
+        <v>0.75</v>
+      </c>
+      <c r="E238">
+        <v>35</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+      <c r="G238" t="str">
+        <f>VLOOKUP(B238,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_luck_s</v>
+      </c>
+      <c r="H238" t="str">
+        <f>VLOOKUP(B238,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_luck_s</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>0</v>
+      </c>
+      <c r="B239" t="s">
+        <v>452</v>
+      </c>
+      <c r="C239" t="s">
+        <v>453</v>
+      </c>
+      <c r="D239">
+        <v>0.75</v>
+      </c>
+      <c r="E239">
+        <v>35</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+      <c r="G239" t="str">
+        <f>VLOOKUP(B239,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_willpower_s</v>
+      </c>
+      <c r="H239" t="str">
+        <f>VLOOKUP(B239,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_willpower_s</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>0</v>
+      </c>
+      <c r="B240" t="s">
+        <v>454</v>
+      </c>
+      <c r="C240" t="s">
+        <v>455</v>
+      </c>
+      <c r="D240">
+        <v>1.5</v>
+      </c>
+      <c r="E240">
+        <v>5</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+      <c r="G240" t="str">
+        <f>VLOOKUP(B240,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_health_b</v>
+      </c>
+      <c r="H240" t="str">
+        <f>VLOOKUP(B240,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_health_b</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>0</v>
+      </c>
+      <c r="B241" t="s">
+        <v>456</v>
+      </c>
+      <c r="C241" t="s">
+        <v>457</v>
+      </c>
+      <c r="D241">
+        <v>0.75</v>
+      </c>
+      <c r="E241">
+        <v>35</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="G241" t="str">
+        <f>VLOOKUP(B241,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_magicka_s</v>
+      </c>
+      <c r="H241" t="str">
+        <f>VLOOKUP(B241,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_magicka_s</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>0</v>
+      </c>
+      <c r="B242" t="s">
+        <v>458</v>
+      </c>
+      <c r="C242" t="s">
+        <v>459</v>
+      </c>
+      <c r="D242">
+        <v>1</v>
+      </c>
+      <c r="E242">
+        <v>35</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242" t="str">
+        <f>VLOOKUP(B242,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_mark_s</v>
+      </c>
+      <c r="H242" t="str">
+        <f>VLOOKUP(B242,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_mark_s</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>0</v>
+      </c>
+      <c r="B243" t="s">
+        <v>460</v>
+      </c>
+      <c r="C243" t="s">
+        <v>461</v>
+      </c>
+      <c r="D243">
+        <v>0.75</v>
+      </c>
+      <c r="E243">
+        <v>35</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+      <c r="G243" t="str">
+        <f>VLOOKUP(B243,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_frost_resistance_s</v>
+      </c>
+      <c r="H243" t="str">
+        <f>VLOOKUP(B243,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_frost_resistance_s</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>0</v>
+      </c>
+      <c r="B244" t="s">
+        <v>462</v>
+      </c>
+      <c r="C244" t="s">
+        <v>463</v>
+      </c>
+      <c r="D244">
+        <v>1</v>
+      </c>
+      <c r="E244">
+        <v>35</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+      <c r="G244" t="str">
+        <f>VLOOKUP(B244,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_slowfall_s</v>
+      </c>
+      <c r="H244" t="str">
+        <f>VLOOKUP(B244,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_slowfall_s</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>0</v>
+      </c>
+      <c r="B245" t="s">
+        <v>464</v>
+      </c>
+      <c r="C245" t="s">
+        <v>465</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+      <c r="E245">
+        <v>35</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+      <c r="G245" t="str">
+        <f>VLOOKUP(B245,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_telekinesis_s</v>
+      </c>
+      <c r="H245" t="str">
+        <f>VLOOKUP(B245,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_telekinesis_s</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>0</v>
+      </c>
+      <c r="B246" t="s">
+        <v>466</v>
+      </c>
+      <c r="C246" t="s">
+        <v>467</v>
+      </c>
+      <c r="D246">
+        <v>1</v>
+      </c>
+      <c r="E246">
+        <v>35</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+      <c r="G246" t="str">
+        <f>VLOOKUP(B246,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_water_breathing_s</v>
+      </c>
+      <c r="H246" t="str">
+        <f>VLOOKUP(B246,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_water_breathing_s</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>0</v>
+      </c>
+      <c r="B247" t="s">
+        <v>468</v>
+      </c>
+      <c r="C247" t="s">
+        <v>469</v>
+      </c>
+      <c r="D247">
+        <v>1</v>
+      </c>
+      <c r="E247">
+        <v>35</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+      <c r="G247" t="str">
+        <f>VLOOKUP(B247,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_water_walking_s</v>
+      </c>
+      <c r="H247" t="str">
+        <f>VLOOKUP(B247,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_water_walking_s</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>0</v>
+      </c>
+      <c r="B248" t="s">
+        <v>511</v>
+      </c>
+      <c r="C248" t="s">
+        <v>512</v>
+      </c>
+      <c r="D248">
+        <v>1</v>
+      </c>
+      <c r="E248">
+        <v>500</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+      <c r="G248" t="e">
+        <f>VLOOKUP(B248,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H248" t="str">
+        <f>VLOOKUP(B248,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_vintagecomberrybrandy1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>0</v>
+      </c>
+      <c r="B249" t="s">
+        <v>470</v>
+      </c>
+      <c r="C249" t="s">
+        <v>471</v>
+      </c>
+      <c r="D249">
+        <v>0.75</v>
+      </c>
+      <c r="E249">
+        <v>35</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+      <c r="G249" t="str">
+        <f>VLOOKUP(B249,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_frost_shield_s</v>
+      </c>
+      <c r="H249" t="str">
+        <f>VLOOKUP(B249,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_frost_shield_s</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>0</v>
+      </c>
+      <c r="B250" t="s">
+        <v>472</v>
+      </c>
+      <c r="C250" t="s">
+        <v>473</v>
+      </c>
+      <c r="D250">
+        <v>0.75</v>
+      </c>
+      <c r="E250">
+        <v>35</v>
+      </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
+      <c r="G250" t="str">
+        <f>VLOOKUP(B250,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_magicka_s</v>
+      </c>
+      <c r="H250" t="str">
+        <f>VLOOKUP(B250,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_magicka_s</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>0</v>
+      </c>
+      <c r="B251" t="s">
+        <v>474</v>
+      </c>
+      <c r="C251" t="s">
+        <v>475</v>
+      </c>
+      <c r="D251">
+        <v>0.25</v>
+      </c>
+      <c r="E251">
+        <v>175</v>
+      </c>
+      <c r="F251">
+        <v>0</v>
+      </c>
+      <c r="G251" t="str">
+        <f>VLOOKUP(B251,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_fortify_attack_e</v>
+      </c>
+      <c r="H251" t="str">
+        <f>VLOOKUP(B251,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_fortify_attack_e</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>0</v>
+      </c>
+      <c r="B252" t="s">
+        <v>513</v>
+      </c>
+      <c r="C252" t="s">
+        <v>514</v>
+      </c>
+      <c r="D252">
+        <v>1</v>
+      </c>
+      <c r="E252">
+        <v>100</v>
+      </c>
+      <c r="F252">
+        <v>0</v>
+      </c>
+      <c r="G252" t="e">
+        <f>VLOOKUP(B252,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H252" t="str">
+        <f>VLOOKUP(B252,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_cure_common_unique</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>0</v>
+      </c>
+      <c r="B253" t="s">
+        <v>476</v>
+      </c>
+      <c r="C253" t="s">
+        <v>477</v>
+      </c>
+      <c r="D253">
+        <v>0.75</v>
+      </c>
+      <c r="E253">
+        <v>35</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+      <c r="G253" t="str">
+        <f>VLOOKUP(B253,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_restore_health_s</v>
+      </c>
+      <c r="H253" t="str">
+        <f>VLOOKUP(B253,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_restore_health_s</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>0</v>
+      </c>
+      <c r="B254" t="s">
+        <v>478</v>
+      </c>
+      <c r="C254" t="s">
+        <v>479</v>
+      </c>
+      <c r="D254">
+        <v>1</v>
+      </c>
+      <c r="E254">
+        <v>35</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
+      <c r="G254" t="str">
+        <f>VLOOKUP(B254,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_detect_enchantment_s</v>
+      </c>
+      <c r="H254" t="str">
+        <f>VLOOKUP(B254,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_detect_enchantment_s</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>0</v>
+      </c>
+      <c r="B255" t="s">
+        <v>515</v>
+      </c>
+      <c r="C255" t="s">
+        <v>516</v>
+      </c>
+      <c r="D255">
+        <v>0.5</v>
+      </c>
+      <c r="E255">
+        <v>5000</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+      <c r="G255" t="e">
+        <f>VLOOKUP(B255,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H255" t="str">
+        <f>VLOOKUP(B255,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_quarrablood_UNIQUE</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>0</v>
+      </c>
+      <c r="B256" t="s">
+        <v>517</v>
+      </c>
+      <c r="C256" t="s">
+        <v>518</v>
+      </c>
+      <c r="D256">
+        <v>0.5</v>
+      </c>
+      <c r="E256">
+        <v>1502</v>
+      </c>
+      <c r="F256">
+        <v>0</v>
+      </c>
+      <c r="G256" t="e">
+        <f>VLOOKUP(B256,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H256" t="str">
+        <f>VLOOKUP(B256,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_sinyaramen_UNIQUE</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>0</v>
+      </c>
+      <c r="B257" t="s">
+        <v>480</v>
+      </c>
+      <c r="C257" t="s">
+        <v>481</v>
+      </c>
+      <c r="D257">
+        <v>0.5</v>
+      </c>
+      <c r="E257">
+        <v>1456</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+      <c r="G257" t="str">
+        <f>VLOOKUP(B257,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_heroism_s</v>
+      </c>
+      <c r="H257" t="str">
+        <f>VLOOKUP(B257,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_heroism_s</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>0</v>
+      </c>
+      <c r="B258" t="s">
+        <v>519</v>
+      </c>
+      <c r="C258" t="s">
+        <v>520</v>
+      </c>
+      <c r="D258">
+        <v>1.5</v>
+      </c>
+      <c r="E258">
+        <v>35</v>
+      </c>
+      <c r="F258">
+        <v>0</v>
+      </c>
+      <c r="G258" t="e">
+        <f>VLOOKUP(B258,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H258" t="str">
+        <f>VLOOKUP(B258,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_lovepotion_unique</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>0</v>
+      </c>
+      <c r="B259" t="s">
+        <v>482</v>
+      </c>
+      <c r="C259" t="s">
+        <v>483</v>
+      </c>
+      <c r="D259">
+        <v>1</v>
+      </c>
+      <c r="E259">
+        <v>35</v>
+      </c>
+      <c r="F259">
+        <v>0</v>
+      </c>
+      <c r="G259" t="str">
+        <f>VLOOKUP(B259,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>p_recall_s</v>
+      </c>
+      <c r="H259" t="str">
+        <f>VLOOKUP(B259,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_recall_s</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>0</v>
+      </c>
+      <c r="B260" t="s">
+        <v>521</v>
+      </c>
+      <c r="C260" t="s">
+        <v>522</v>
+      </c>
+      <c r="D260">
+        <v>1</v>
+      </c>
+      <c r="E260">
+        <v>100</v>
+      </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
+      <c r="G260" t="e">
+        <f>VLOOKUP(B260,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H260" t="str">
+        <f>VLOOKUP(B260,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>pyroil_tar_unique</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>0</v>
+      </c>
+      <c r="B261" t="s">
+        <v>523</v>
+      </c>
+      <c r="C261" t="s">
+        <v>524</v>
+      </c>
+      <c r="D261">
+        <v>2</v>
+      </c>
+      <c r="E261">
+        <v>200</v>
+      </c>
+      <c r="F261">
+        <v>0</v>
+      </c>
+      <c r="G261" t="e">
+        <f>VLOOKUP(B261,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H261" t="str">
+        <f>VLOOKUP(B261,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_dwemer_lubricant00</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>0</v>
+      </c>
+      <c r="B262" t="s">
+        <v>525</v>
+      </c>
+      <c r="C262" t="s">
+        <v>526</v>
+      </c>
+      <c r="D262">
+        <v>5</v>
+      </c>
+      <c r="E262">
+        <v>100</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+      <c r="G262" t="e">
+        <f>VLOOKUP(B262,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H262" t="str">
+        <f>VLOOKUP(B262,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>verminous_fabricant_elixir</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>0</v>
+      </c>
+      <c r="B263" t="s">
+        <v>527</v>
+      </c>
+      <c r="C263" t="s">
+        <v>528</v>
+      </c>
+      <c r="D263">
+        <v>5</v>
+      </c>
+      <c r="E263">
+        <v>100</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
+      <c r="G263" t="e">
+        <f>VLOOKUP(B263,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H263" t="str">
+        <f>VLOOKUP(B263,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>hulking_fabricant_elixir</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>0</v>
+      </c>
+      <c r="B264" t="s">
+        <v>529</v>
+      </c>
+      <c r="C264" t="s">
+        <v>530</v>
+      </c>
+      <c r="D264">
+        <v>1</v>
+      </c>
+      <c r="E264">
+        <v>661</v>
+      </c>
+      <c r="F264">
+        <v>1</v>
+      </c>
+      <c r="G264" t="e">
+        <f>VLOOKUP(B264,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H264" t="str">
+        <f>VLOOKUP(B264,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>p_Imperfect_Elixir</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>0</v>
+      </c>
+      <c r="B265" t="s">
+        <v>531</v>
+      </c>
+      <c r="C265" t="s">
+        <v>532</v>
+      </c>
+      <c r="D265">
+        <v>1</v>
+      </c>
+      <c r="E265">
+        <v>80</v>
+      </c>
+      <c r="F265">
+        <v>0</v>
+      </c>
+      <c r="G265" t="e">
+        <f>VLOOKUP(B265,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H265" t="str">
+        <f>VLOOKUP(B265,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>potion_nord_mead</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>0</v>
+      </c>
+      <c r="B266" t="s">
+        <v>749</v>
+      </c>
+      <c r="C266" t="s">
+        <v>750</v>
+      </c>
+      <c r="D266">
+        <v>0.5</v>
+      </c>
+      <c r="E266">
+        <v>20</v>
+      </c>
+      <c r="F266">
+        <v>0</v>
+      </c>
+      <c r="G266" t="e">
+        <f>VLOOKUP(B266,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H266" t="str">
+        <f>VLOOKUP(B266,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>AB_alc_HealBandage01</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>0</v>
+      </c>
+      <c r="B267" t="s">
+        <v>751</v>
+      </c>
+      <c r="C267" t="s">
+        <v>750</v>
+      </c>
+      <c r="D267">
+        <v>0.5</v>
+      </c>
+      <c r="E267">
+        <v>20</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+      <c r="G267" t="e">
+        <f>VLOOKUP(B267,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H267" t="str">
+        <f>VLOOKUP(B267,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>AB_alc_HealBandage02</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>0</v>
+      </c>
+      <c r="B268" t="s">
+        <v>744</v>
+      </c>
+      <c r="C268" t="s">
+        <v>727</v>
+      </c>
+      <c r="D268">
+        <v>1</v>
+      </c>
+      <c r="E268">
+        <v>4</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+      <c r="G268" t="e">
+        <f>VLOOKUP(B268,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H268" t="str">
+        <f>VLOOKUP(B268,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>AB_dri_GuarMilk</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>0</v>
+      </c>
+      <c r="B269" t="s">
+        <v>740</v>
+      </c>
+      <c r="C269" t="s">
+        <v>741</v>
+      </c>
+      <c r="D269">
+        <v>4</v>
+      </c>
+      <c r="E269">
+        <v>10</v>
+      </c>
+      <c r="F269">
+        <v>0</v>
+      </c>
+      <c r="G269" t="e">
+        <f>VLOOKUP(B269,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H269" t="str">
+        <f>VLOOKUP(B269,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>AB_dri_Musa</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D270" s="1">
+        <v>3</v>
+      </c>
+      <c r="E270" s="1">
+        <v>15</v>
+      </c>
+      <c r="F270" s="1">
+        <v>0</v>
+      </c>
+      <c r="G270" s="1" t="e">
+        <f>VLOOKUP(B270,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H270" s="1" t="str">
+        <f>VLOOKUP(B270,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>AB_dri_Sillapi</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>0</v>
+      </c>
+      <c r="B271" t="s">
+        <v>742</v>
+      </c>
+      <c r="C271" t="s">
+        <v>743</v>
+      </c>
+      <c r="D271">
+        <v>0.5</v>
+      </c>
+      <c r="E271">
+        <v>5</v>
+      </c>
+      <c r="F271">
+        <v>0</v>
+      </c>
+      <c r="G271" t="str">
+        <f>VLOOKUP(B271,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>AB_dri_TramaTea</v>
+      </c>
+      <c r="H271" t="str">
+        <f>VLOOKUP(B271,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>AB_dri_TramaTea</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>0</v>
+      </c>
+      <c r="B272" t="s">
+        <v>745</v>
+      </c>
+      <c r="C272" t="s">
+        <v>746</v>
+      </c>
+      <c r="D272">
+        <v>3</v>
+      </c>
+      <c r="E272">
+        <v>20</v>
+      </c>
+      <c r="F272">
+        <v>0</v>
+      </c>
+      <c r="G272" t="e">
+        <f>VLOOKUP(B272,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H272" t="str">
+        <f>VLOOKUP(B272,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>AB_dri_Yamuz</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>0</v>
+      </c>
+      <c r="B273" t="s">
+        <v>747</v>
+      </c>
+      <c r="C273" t="s">
+        <v>748</v>
+      </c>
+      <c r="D273">
+        <v>0</v>
+      </c>
+      <c r="E273">
+        <v>37</v>
+      </c>
+      <c r="F273">
+        <v>1</v>
+      </c>
+      <c r="G273" t="e">
+        <f>VLOOKUP(B273,'Alchemy-ALL-PotionsOnly'!B:B,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H273" t="str">
+        <f>VLOOKUP(B273,'Alchemy-AllMods'!B:B,1,FALSE)</f>
+        <v>AB_eff_KwamaPoison</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>